--- a/paperlist.xlsx
+++ b/paperlist.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvia.wang/Documents/phd/KGpaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{852699C1-C692-614A-829E-054F9437E5CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC25A98-54BC-D044-8FF7-FF0A847295CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="460" windowWidth="28040" windowHeight="16740" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
+    <workbookView xWindow="22600" yWindow="2380" windowWidth="23900" windowHeight="16740" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="224">
   <si>
     <t>Conference</t>
   </si>
@@ -172,12 +171,6 @@
     <t>https://arxiv.org/abs/1911.07132</t>
   </si>
   <si>
-    <t>Knowledge Graph Alignment Network with Gated Multi-­‐hop Neighborhood Aggregation</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/1911.08936</t>
-  </si>
-  <si>
     <t>DIAG-NRE: A neural pattern diagnosis framework for distantly supervised neural relation extraction</t>
   </si>
   <si>
@@ -223,12 +216,6 @@
     <t>https://arxiv.org/abs/1905.08284</t>
   </si>
   <si>
-    <t>Matching the blanks: Distributional similarity for relation learning</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.18653/v1/P19-1279</t>
-  </si>
-  <si>
     <t>NRE/Selecting Informative Instances</t>
   </si>
   <si>
@@ -274,15 +261,6 @@
     <t>https://doi.org/10.18653/v1/D19-1649</t>
   </si>
   <si>
-    <t>Hybrid Attention-Based Prototypical Networks for Noisy Few-Shot Relation Classification</t>
-  </si>
-  <si>
-    <t>https://www.aaai.org/ojs/index.php/AAAI/article/view/4604</t>
-  </si>
-  <si>
-    <t>Matching the blanks: Distributional similarity for relation learning.</t>
-  </si>
-  <si>
     <t>Multi-level matching and aggregation network for few-shot relation classification</t>
   </si>
   <si>
@@ -455,6 +433,270 @@
   </si>
   <si>
     <t>Observing LOD using Equivalent Set Graphs: it is mostly flat and sparsely linked</t>
+  </si>
+  <si>
+    <t>SPARQA: Skeleton-based Semantic Parsing for Complex Questions over Knowledge Bases</t>
+  </si>
+  <si>
+    <t>An Evaluation of Knowledge Graph Embeddings for Autonomous Driving Data: Experience and Practice</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2003.00344</t>
+  </si>
+  <si>
+    <t>Detecting Asks in SE attacks: Impact of Linguistic and Structural Knowledge</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2002.10931</t>
+  </si>
+  <si>
+    <t>Knowledge Integration Networks for Action Recognition</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2002.07471</t>
+  </si>
+  <si>
+    <t>Coordinated Reasoning for Cross-Lingual Knowledge Graph Alignment</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2001.08728</t>
+  </si>
+  <si>
+    <t>Debate Dynamics for Human-comprehensible Fact-checking on Knowledge Graphs</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2001.03436</t>
+  </si>
+  <si>
+    <t>Differentiable Reasoning on Large Knowledge Bases and Natural Language</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1912.10824</t>
+  </si>
+  <si>
+    <t>Knowledge Graph Transfer Network for Few-Shot Recognition</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1911.09579</t>
+  </si>
+  <si>
+    <t>Learning Hierarchy-Aware Knowledge Graph Embeddings for Link Prediction</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1911.09419</t>
+  </si>
+  <si>
+    <t>Knowledge Graph Alignment Network with Gated Multi-hop Neighborhood Aggregation</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1911.08936</t>
+  </si>
+  <si>
+    <t>Rule-Guided Compositional Representation Learning on Knowledge Graphs</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1911.08935</t>
+  </si>
+  <si>
+    <t>InteractE: Improving Convolution-based Knowledge Graph Embeddings by Increasing Feature Interactions</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1911.00219</t>
+  </si>
+  <si>
+    <t>Graph Few-shot Learning via Knowledge Transfer</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1910.03053</t>
+  </si>
+  <si>
+    <t>Commonsense Knowledge Base Completion with Structural and Semantic Context</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1910.02915</t>
+  </si>
+  <si>
+    <t>IJCAI</t>
+  </si>
+  <si>
+    <t>Relation-Aware Entity Alignment for Heterogeneous Knowledge Graphs</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1908.08210</t>
+  </si>
+  <si>
+    <t>Neural Variational Inference For Estimating Uncertainty in Knowledge Graph Embeddings</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1906.04985</t>
+  </si>
+  <si>
+    <t>Entity Synonym Discovery via Multipiece Bilateral Context Matching</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1901.00056</t>
+  </si>
+  <si>
+    <t>ZeroShotCeres: Zero-Shot Relation Extraction from Semi-Structured Webpages</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2005.07105</t>
+  </si>
+  <si>
+    <t>Neighborhood Matching Network for Entity Alignment</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2005.05607</t>
+  </si>
+  <si>
+    <t>Knowledge Graph-Augmented Abstractive Summarization with Semantic-Driven Cloze Reward</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2005.01159</t>
+  </si>
+  <si>
+    <t>Relabel the Noise: Joint Extraction of Entities and Relations via Cooperative Multiagents</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2004.09930</t>
+  </si>
+  <si>
+    <t>Orthogonal Relation Transforms with Graph Context Modeling for Knowledge Graph Embedding</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1911.04910</t>
+  </si>
+  <si>
+    <t>A Re-evaluation of Knowledge Graph Completion Methods</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1911.03903</t>
+  </si>
+  <si>
+    <t>A Novel Cascade Binary Tagging Framework for Relational Triple Extraction</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1909.03227</t>
+  </si>
+  <si>
+    <t>A Relational Memory-based Embedding Model for Triple Classification and Search Personalization</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1907.06080</t>
+  </si>
+  <si>
+    <t>Proactive Human-Machine Conversation with Explicit Conversation Goals</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1906.05572</t>
+  </si>
+  <si>
+    <t>COMET: Commonsense Transformers for Automatic Knowledge Graph Construction</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1906.05317</t>
+  </si>
+  <si>
+    <t>Matching the Blanks: Distributional Similarity for Relation Learning</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1906.03158</t>
+  </si>
+  <si>
+    <t>Relation Embedding with Dihedral Group in Knowledge Graph</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1906.00687</t>
+  </si>
+  <si>
+    <t>Cross-lingual Knowledge Graph Alignment via Graph Matching Neural Network</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1905.11605</t>
+  </si>
+  <si>
+    <t>PaperRobot: Incremental Draft Generation of Scientific Ideas</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1905.07870</t>
+  </si>
+  <si>
+    <t>GrapAL: Connecting the Dots in Scientific Literature</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1902.05170</t>
+  </si>
+  <si>
+    <t>Relation Extraction</t>
+  </si>
+  <si>
+    <t>Abstractive Summarization</t>
+  </si>
+  <si>
+    <t>Entity/Relation extraction</t>
+  </si>
+  <si>
+    <t>Embedding/Linking</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Alignment</t>
+  </si>
+  <si>
+    <t>Construction/RE</t>
+  </si>
+  <si>
+    <t>NRE/Few-Shot Learning/Transformer</t>
+  </si>
+  <si>
+    <t>Classifier/action recognition</t>
+  </si>
+  <si>
+    <t>Classifier/Fact-checking</t>
+  </si>
+  <si>
+    <t>Reasoning/NLP</t>
+  </si>
+  <si>
+    <t>Classifier/Vision/Few-shot learning</t>
+  </si>
+  <si>
+    <t>Embedding/RE</t>
+  </si>
+  <si>
+    <t>Embeding</t>
+  </si>
+  <si>
+    <t>Classifier/Few-shot learning</t>
+  </si>
+  <si>
+    <t>Inductive Link Prediction for Nodes Having Only Attribute Information</t>
+  </si>
+  <si>
+    <t>Answering Counting Queries over DL-Lite Ontologies</t>
+  </si>
+  <si>
+    <t>Cone Semantics for Logics with Negation</t>
+  </si>
+  <si>
+    <t>Controlled Query Evaluation in Description Logics Through Instance Indistinguishability</t>
+  </si>
+  <si>
+    <t>Counting Query Answers over a DL-Lite KB</t>
+  </si>
+  <si>
+    <t>Deductive Module Extraction for Expressive Description Logics</t>
+  </si>
+  <si>
+    <t>Enriching Documents with Compact, Representative, Relevant Knowledge Graphs</t>
+  </si>
+  <si>
+    <t>Reasoning Like Human: Hierarchical Reinforcement Learning for Knowledge Graph Reasoning</t>
+  </si>
+  <si>
+    <t>BERT-INT:A BERT-based Interaction Model For Knowledge Graph Alignment</t>
   </si>
 </sst>
 </file>
@@ -852,15 +1094,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3103BAF2-20A2-A84B-B31B-72839568B135}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
     <col min="4" max="4" width="78.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="7" width="60.33203125" style="5" customWidth="1"/>
@@ -890,52 +1132,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2019</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
@@ -1092,881 +1288,1470 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12">
-        <v>2020</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C13">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14">
-        <v>2019</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="C15">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>106</v>
+        <v>57</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>2018</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>2019</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <v>2019</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C19">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>2019</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C21">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23">
-        <v>2019</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>2019</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25">
-        <v>2019</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26">
-        <v>2019</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27">
-        <v>2019</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="1" t="s">
         <v>75</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C28">
         <v>2019</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C29">
         <v>2019</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30">
-        <v>2019</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>2019</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C32">
         <v>2019</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>88</v>
-      </c>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C33">
         <v>2019</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>88</v>
-      </c>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C34">
         <v>2019</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>91</v>
-      </c>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C35">
         <v>2019</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36">
+        <v>2019</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37">
+        <v>2019</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38">
+        <v>2019</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39">
+        <v>2019</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40">
+        <v>2019</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41">
+        <v>2019</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42">
+        <v>2019</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36">
-        <v>2019</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E37" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39">
-        <v>2019</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40">
-        <v>2019</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41">
-        <v>2019</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42">
-        <v>2019</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C43">
         <v>2019</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C44">
         <v>2019</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C45">
         <v>2019</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46">
+        <v>2019</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47">
+        <v>2019</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46">
-        <v>2019</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47">
-        <v>2019</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>108</v>
-      </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C48">
         <v>2019</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C49">
         <v>2019</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>2019</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C51">
         <v>2019</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C52">
         <v>2019</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C53">
         <v>2019</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>117</v>
-      </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C54">
         <v>2019</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>119</v>
-      </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C55">
         <v>2019</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>111</v>
-      </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C56">
         <v>2019</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>117</v>
-      </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C57">
         <v>2019</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C58">
         <v>2019</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C59">
         <v>2019</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C60">
         <v>2019</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>126</v>
-      </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C61">
         <v>2019</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>104</v>
+      </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C62">
         <v>2019</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63">
+        <v>2019</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63">
-        <v>2019</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C64">
         <v>2019</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>101</v>
+      </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C65">
         <v>2019</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C66">
         <v>2019</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
         <v>134</v>
       </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C67">
         <v>2019</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C68">
         <v>2019</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C69">
         <v>2019</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73">
+        <v>2020</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70">
-        <v>2019</v>
-      </c>
-      <c r="D70" s="2" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74">
+        <v>2020</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>108</v>
-      </c>
-      <c r="B71" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71">
-        <v>2019</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="E74" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>134</v>
-      </c>
-      <c r="B72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72">
-        <v>2019</v>
-      </c>
-      <c r="D72" s="2" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75">
+        <v>2020</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>108</v>
-      </c>
-      <c r="B73" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73">
-        <v>2019</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="E75" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>134</v>
-      </c>
-      <c r="B74" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74">
-        <v>2019</v>
-      </c>
-      <c r="D74" s="2" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76">
+        <v>2020</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>94</v>
-      </c>
-      <c r="C75">
-        <v>2019</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="E76" s="1" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77">
+        <v>2020</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>209</v>
+      </c>
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78">
+        <v>2020</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79">
+        <v>2020</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>211</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80">
+        <v>2020</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>212</v>
+      </c>
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81">
+        <v>2020</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82">
+        <v>2020</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83">
+        <v>2020</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>213</v>
+      </c>
+      <c r="B84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84">
+        <v>2020</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>214</v>
+      </c>
+      <c r="B85" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85">
+        <v>2020</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86">
+        <v>2020</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87">
+        <v>2020</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>163</v>
+      </c>
+      <c r="C91">
+        <v>2020</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92">
+        <v>2020</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>163</v>
+      </c>
+      <c r="C93">
+        <v>2020</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D94" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>127</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D96" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D97" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D98" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D99" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D100" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D101" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D102" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>205</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>200</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>2020</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>2020</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>2020</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>202</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>2020</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>203</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>2020</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>2020</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>204</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>2020</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>2020</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>2019</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>2019</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>2019</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>203</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>2019</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>205</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>2019</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>2019</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>104</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>2019</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>76</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>2019</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>81</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>2019</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>81</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>2019</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>50</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>2019</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E125" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>2019</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>2019</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>2019</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{09A953FC-8077-004E-830A-11F07D4A00A2}"/>
+    <hyperlink ref="E127" r:id="rId1" xr:uid="{09A953FC-8077-004E-830A-11F07D4A00A2}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{5AA7BD6A-34D9-6840-9A54-00D639411171}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{5A653AD7-8086-9E4E-8995-0AB36BB446EB}"/>
+    <hyperlink ref="E128" r:id="rId3" xr:uid="{5A653AD7-8086-9E4E-8995-0AB36BB446EB}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{5E05E112-7F10-BA44-BB9E-D2995CA24969}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{F9F4AC28-1768-6A4B-B95A-118F714F264A}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{186052F4-16A4-4E4C-89E3-9CED1321F3A8}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{2EF7F4BA-C582-E247-8A58-32F96775F02C}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{13DEB81E-0DD2-3F4F-B670-1CF6828E858F}"/>
     <hyperlink ref="E11" r:id="rId9" xr:uid="{A7684A19-311B-8E4C-A39E-F37EFED72D18}"/>
-    <hyperlink ref="E12" r:id="rId10" xr:uid="{77F624A6-84DE-B048-B27D-99479B946D80}"/>
-    <hyperlink ref="E13" r:id="rId11" xr:uid="{73CC8575-1D38-134B-B105-3981D0C62C80}"/>
-    <hyperlink ref="E19" r:id="rId12" xr:uid="{B980A26F-DCCA-4B44-BEA7-EEF09B85221E}"/>
-    <hyperlink ref="E21" r:id="rId13" xr:uid="{C91061E1-9240-774D-9434-9701C1B9134D}"/>
-    <hyperlink ref="E23" r:id="rId14" xr:uid="{BADAE6F3-0E95-7841-AF12-A89E91791ECB}"/>
-    <hyperlink ref="E24" r:id="rId15" xr:uid="{CC9D840D-0B16-074C-B665-3B42F4BA53D6}"/>
-    <hyperlink ref="E25" r:id="rId16" xr:uid="{6970BD25-60C9-7B45-BB0B-EBE4EF25C429}"/>
-    <hyperlink ref="E26" r:id="rId17" xr:uid="{08699B29-665C-D343-B623-F51A3824B32E}"/>
-    <hyperlink ref="E27" r:id="rId18" xr:uid="{3D39DE33-A33E-BA4E-A8F4-F47B9A5C423D}"/>
-    <hyperlink ref="E28" r:id="rId19" xr:uid="{AA7A4095-AA7C-A04C-B363-4819D759227B}"/>
-    <hyperlink ref="E29" r:id="rId20" xr:uid="{4B9DB0ED-A50C-4649-B152-FD6D4707F600}"/>
-    <hyperlink ref="E30" r:id="rId21" xr:uid="{093CC341-6437-5F4E-9B58-16E341DA0629}"/>
-    <hyperlink ref="E31" r:id="rId22" xr:uid="{B835227D-F692-4A44-96B1-7B8E2BE30F28}"/>
-    <hyperlink ref="E32" r:id="rId23" xr:uid="{28538B69-A0BE-F046-A3F7-2685AEE70279}"/>
-    <hyperlink ref="E33" r:id="rId24" xr:uid="{1F829FA0-75B2-0B49-A961-5124ABABF7E3}"/>
-    <hyperlink ref="E34" r:id="rId25" xr:uid="{D2BC016F-183E-E94B-8B5D-BE17DE1C0B23}"/>
-    <hyperlink ref="E35" r:id="rId26" xr:uid="{39F35210-ADF1-574D-836E-0DB0C64EE3E6}"/>
+    <hyperlink ref="E87" r:id="rId10" xr:uid="{77F624A6-84DE-B048-B27D-99479B946D80}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{B980A26F-DCCA-4B44-BEA7-EEF09B85221E}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{C91061E1-9240-774D-9434-9701C1B9134D}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{BADAE6F3-0E95-7841-AF12-A89E91791ECB}"/>
+    <hyperlink ref="E18" r:id="rId14" xr:uid="{6970BD25-60C9-7B45-BB0B-EBE4EF25C429}"/>
+    <hyperlink ref="E19" r:id="rId15" xr:uid="{08699B29-665C-D343-B623-F51A3824B32E}"/>
+    <hyperlink ref="E20" r:id="rId16" xr:uid="{3D39DE33-A33E-BA4E-A8F4-F47B9A5C423D}"/>
+    <hyperlink ref="E21" r:id="rId17" xr:uid="{AA7A4095-AA7C-A04C-B363-4819D759227B}"/>
+    <hyperlink ref="E22" r:id="rId18" xr:uid="{4B9DB0ED-A50C-4649-B152-FD6D4707F600}"/>
+    <hyperlink ref="E28" r:id="rId19" xr:uid="{39F35210-ADF1-574D-836E-0DB0C64EE3E6}"/>
+    <hyperlink ref="E74" r:id="rId20" xr:uid="{58521CF6-4DD6-864A-9353-6E6B7D19614A}"/>
+    <hyperlink ref="E75" r:id="rId21" xr:uid="{0956436E-04D5-8C40-9A62-1A7842FBDE65}"/>
+    <hyperlink ref="E76" r:id="rId22" xr:uid="{DDCEC05A-7108-6349-A790-E82B16ABD0B1}"/>
+    <hyperlink ref="E77" r:id="rId23" xr:uid="{47269675-1D6E-BD43-B5BF-4B79E4A65C97}"/>
+    <hyperlink ref="E78" r:id="rId24" xr:uid="{999331A5-313D-B045-8D03-9D93C6BA2371}"/>
+    <hyperlink ref="E79" r:id="rId25" xr:uid="{01C1848F-508E-FF49-B863-F87723FA88F7}"/>
+    <hyperlink ref="E80" r:id="rId26" xr:uid="{81E54824-45CF-F542-86FA-5412641B7ED5}"/>
+    <hyperlink ref="E81" r:id="rId27" xr:uid="{5F6311DB-0824-6548-BB18-1792FF9556ED}"/>
+    <hyperlink ref="E82" r:id="rId28" xr:uid="{5767A429-B469-5E49-99C6-664698601658}"/>
+    <hyperlink ref="E83" r:id="rId29" xr:uid="{A1305B61-612F-CC49-AB79-BF3CE347EB34}"/>
+    <hyperlink ref="E85" r:id="rId30" xr:uid="{420F1CFC-B027-914F-A43C-5D27390AAF98}"/>
+    <hyperlink ref="E86" r:id="rId31" xr:uid="{2E4589CB-E153-AE47-8923-31D7D90F4416}"/>
+    <hyperlink ref="E91" r:id="rId32" xr:uid="{CE133BD8-FF82-7849-B882-E0C8E70F5EC1}"/>
+    <hyperlink ref="E92" r:id="rId33" xr:uid="{64C74A7C-DC23-114F-AB35-940BB0CC7A36}"/>
+    <hyperlink ref="E93" r:id="rId34" xr:uid="{75DE1521-A464-8D45-BE99-BD9D3D90C594}"/>
+    <hyperlink ref="E106" r:id="rId35" xr:uid="{8DC89559-C498-9048-BBE3-744354778197}"/>
+    <hyperlink ref="E107" r:id="rId36" xr:uid="{D46A07BF-B729-DD48-A33D-72A09F093892}"/>
+    <hyperlink ref="E108" r:id="rId37" xr:uid="{72083EE7-A622-EF4D-9EE2-FC859B8822C1}"/>
+    <hyperlink ref="E109" r:id="rId38" xr:uid="{F5A17BA0-1E3F-684D-A0CB-4C8392D806B9}"/>
+    <hyperlink ref="E110" r:id="rId39" xr:uid="{135F9111-BCA9-FD4C-8661-7739E35CC30E}"/>
+    <hyperlink ref="E111" r:id="rId40" xr:uid="{D7183734-6099-9A4A-9840-18C8DF20716F}"/>
+    <hyperlink ref="E112" r:id="rId41" xr:uid="{30B92D40-517F-6D46-98A7-16F85F8BA2BE}"/>
+    <hyperlink ref="E113" r:id="rId42" xr:uid="{1E7A4013-A7FF-9B44-A8A4-F7644BE54790}"/>
+    <hyperlink ref="E114" r:id="rId43" xr:uid="{B650C969-9C98-7349-8613-40DA7FF83726}"/>
+    <hyperlink ref="E117" r:id="rId44" xr:uid="{7C79B9D8-D0FA-984F-ACC5-9654554DE26B}"/>
+    <hyperlink ref="E118" r:id="rId45" xr:uid="{EC843BD4-878D-BE48-A9E3-176973276D0D}"/>
+    <hyperlink ref="E119" r:id="rId46" xr:uid="{806CD488-31F5-1440-9C53-786656FD1DC3}"/>
+    <hyperlink ref="E120" r:id="rId47" xr:uid="{6C38189C-4114-1040-A105-8733C4123D3B}"/>
+    <hyperlink ref="E124" r:id="rId48" xr:uid="{F527E923-EC86-D44A-9068-DAAF43D7C651}"/>
+    <hyperlink ref="E123" r:id="rId49" xr:uid="{03A5BBAA-A6AA-844A-8DCB-7616837ADB96}"/>
+    <hyperlink ref="E122" r:id="rId50" xr:uid="{A7C16FAA-D280-A94C-AFFF-F26210EF5642}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/paperlist.xlsx
+++ b/paperlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvia.wang/Documents/phd/KGpaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC25A98-54BC-D044-8FF7-FF0A847295CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F149F5F1-E65D-DE41-AAB3-8698A1CD0CF8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22600" yWindow="2380" windowWidth="23900" windowHeight="16740" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
+    <workbookView xWindow="18160" yWindow="780" windowWidth="23900" windowHeight="16740" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="252">
   <si>
     <t>Conference</t>
   </si>
@@ -663,6 +663,9 @@
     <t>Classifier/Vision/Few-shot learning</t>
   </si>
   <si>
+    <t>RE</t>
+  </si>
+  <si>
     <t>Embedding/RE</t>
   </si>
   <si>
@@ -697,6 +700,87 @@
   </si>
   <si>
     <t>BERT-INT:A BERT-based Interaction Model For Knowledge Graph Alignment</t>
+  </si>
+  <si>
+    <t>Asking Effective and Diverse Questions: A Machine Reading Comprehension based Framework for Joint Entity-Relation Extraction</t>
+  </si>
+  <si>
+    <t>Attention as Relation: Learning Supervised Multi-head Self-Attention for Relation Extraction</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Attention-based Multi-level Feature Fusion for Named Entity Recognition</t>
+  </si>
+  <si>
+    <t>Entity recognition</t>
+  </si>
+  <si>
+    <t>Formal Query Building with Query Structure Prediction for Complex Question Answering over Knowledge Base</t>
+  </si>
+  <si>
+    <t>Generating Reasonable Legal Text through the Combination of Language Modeling and Question Answering</t>
+  </si>
+  <si>
+    <t>Global Structure and Local Semantics-Preserved Embeddings for Entity Alignment</t>
+  </si>
+  <si>
+    <t>Hierarchical Matching Network for Heterogeneous Entity Resolution</t>
+  </si>
+  <si>
+    <t>Hype-HAN: Hyperbolic Hierarchical Attention Network for Semantic Embedding</t>
+  </si>
+  <si>
+    <t>Knowledge Graphs Enhanced Neural Machine Translation</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>Learning Latent Forests for Medical Relation Extraction</t>
+  </si>
+  <si>
+    <t>Learning with Noise: Improving Distantly-Supervised Fine-grained Entity Typing via Automatic Relabeling</t>
+  </si>
+  <si>
+    <t>Leveraging Document-Level Label Consistency for Named Entity Recognition</t>
+  </si>
+  <si>
+    <t>ENtity recognition</t>
+  </si>
+  <si>
+    <t>LogiQA: A Challenge Dataset for Machine Reading Comprehension with Logical Reasoning</t>
+  </si>
+  <si>
+    <t>Modeling Dense Cross-Modal Interactions for Joint Entity-Relation Extraction</t>
+  </si>
+  <si>
+    <t>On the Importance of Word and Sentence Representation Learning in Implicit Discourse Relation Classification</t>
+  </si>
+  <si>
+    <t>Retrieve, Program, Repeat: Complex Knowledge Base Question Answering via Alternate Meta-learning</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Transformers as Soft Reasoners over Language</t>
+  </si>
+  <si>
+    <t>TransOMCS: From Linguistic Graphs to Commonsense Knowledge</t>
+  </si>
+  <si>
+    <t>Triple-to-Text Generation with an Anchor-to-Prototype Framework</t>
+  </si>
+  <si>
+    <t>Two-Phase Hypergraph Based Reasoning with Dynamic Relations for Multi-Hop KBQA</t>
+  </si>
+  <si>
+    <t>Reasoning/QA</t>
+  </si>
+  <si>
+    <t>UniTrans : Unifying Model Transfer and Data Transfer for Cross-Lingual Named Entity Recognition with Unlabeled Data</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3103BAF2-20A2-A84B-B31B-72839568B135}">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2092,7 +2176,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B81" t="s">
         <v>46</v>
@@ -2143,7 +2227,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B84" t="s">
         <v>46</v>
@@ -2160,7 +2244,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B85" t="s">
         <v>46</v>
@@ -2253,7 +2337,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D94" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E94" s="1"/>
     </row>
@@ -2262,49 +2346,49 @@
         <v>127</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D96" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D97" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D98" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D99" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D100" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D101" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D102" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E102" s="1"/>
     </row>
@@ -2313,398 +2397,569 @@
         <v>205</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>127</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>227</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>200</v>
-      </c>
-      <c r="B106" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106">
-        <v>2020</v>
+        <v>229</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>205</v>
-      </c>
-      <c r="B107" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107">
-        <v>2020</v>
+        <v>127</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>201</v>
-      </c>
-      <c r="B108" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108">
-        <v>2020</v>
+        <v>127</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>202</v>
-      </c>
-      <c r="B109" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109">
-        <v>2020</v>
+        <v>205</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>203</v>
-      </c>
-      <c r="B110" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110">
-        <v>2020</v>
+        <v>229</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111">
-        <v>2020</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>236</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>212</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>229</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>240</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>101</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>204</v>
       </c>
-      <c r="B112" t="s">
-        <v>2</v>
-      </c>
-      <c r="C112">
-        <v>2020</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>28</v>
-      </c>
-      <c r="B113" t="s">
-        <v>2</v>
-      </c>
-      <c r="C113">
-        <v>2020</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>127</v>
-      </c>
-      <c r="B114" t="s">
-        <v>2</v>
-      </c>
-      <c r="C114">
-        <v>2019</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="D117" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>212</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>245</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>101</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>204</v>
       </c>
-      <c r="B115" t="s">
-        <v>2</v>
-      </c>
-      <c r="C115">
-        <v>2019</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>207</v>
-      </c>
-      <c r="B116" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116">
-        <v>2019</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>203</v>
-      </c>
-      <c r="B117" t="s">
-        <v>2</v>
-      </c>
-      <c r="C117">
-        <v>2019</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>205</v>
-      </c>
-      <c r="B118" t="s">
-        <v>2</v>
-      </c>
-      <c r="C118">
-        <v>2019</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>206</v>
-      </c>
-      <c r="B119" t="s">
-        <v>2</v>
-      </c>
-      <c r="C119">
-        <v>2019</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>104</v>
-      </c>
-      <c r="B120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C120">
-        <v>2019</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D121" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>76</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122">
-        <v>2019</v>
+        <v>204</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>81</v>
-      </c>
-      <c r="B123" t="s">
-        <v>2</v>
-      </c>
-      <c r="C123">
-        <v>2019</v>
+        <v>250</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>81</v>
-      </c>
-      <c r="B124" t="s">
-        <v>2</v>
-      </c>
-      <c r="C124">
-        <v>2019</v>
+        <v>229</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>50</v>
-      </c>
-      <c r="B125" t="s">
-        <v>2</v>
-      </c>
-      <c r="C125">
-        <v>2019</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E125" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>51</v>
-      </c>
-      <c r="B126" t="s">
-        <v>2</v>
-      </c>
-      <c r="C126">
-        <v>2019</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>28</v>
-      </c>
-      <c r="B127" t="s">
-        <v>2</v>
-      </c>
-      <c r="C127">
-        <v>2019</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H127" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="B128" t="s">
         <v>2</v>
       </c>
       <c r="C128">
-        <v>2019</v>
-      </c>
-      <c r="D128" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>205</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>2020</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>201</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>2020</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>2020</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>2020</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>110</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>2020</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>204</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134">
+        <v>2020</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>28</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>2020</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>127</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <v>2019</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>204</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>2019</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>207</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138">
+        <v>2019</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>203</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>2019</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>205</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140">
+        <v>2019</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>206</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>2019</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>104</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142">
+        <v>2019</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>76</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>2019</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>81</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>2019</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>81</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>2019</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>50</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147">
+        <v>2019</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E147" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>51</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>2019</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>28</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>2019</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>28</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <v>2019</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F128" s="5" t="s">
+      <c r="F150" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H150" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E127" r:id="rId1" xr:uid="{09A953FC-8077-004E-830A-11F07D4A00A2}"/>
+    <hyperlink ref="E149" r:id="rId1" xr:uid="{09A953FC-8077-004E-830A-11F07D4A00A2}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{5AA7BD6A-34D9-6840-9A54-00D639411171}"/>
-    <hyperlink ref="E128" r:id="rId3" xr:uid="{5A653AD7-8086-9E4E-8995-0AB36BB446EB}"/>
+    <hyperlink ref="E150" r:id="rId3" xr:uid="{5A653AD7-8086-9E4E-8995-0AB36BB446EB}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{5E05E112-7F10-BA44-BB9E-D2995CA24969}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{F9F4AC28-1768-6A4B-B95A-118F714F264A}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{186052F4-16A4-4E4C-89E3-9CED1321F3A8}"/>
@@ -2736,22 +2991,22 @@
     <hyperlink ref="E91" r:id="rId32" xr:uid="{CE133BD8-FF82-7849-B882-E0C8E70F5EC1}"/>
     <hyperlink ref="E92" r:id="rId33" xr:uid="{64C74A7C-DC23-114F-AB35-940BB0CC7A36}"/>
     <hyperlink ref="E93" r:id="rId34" xr:uid="{75DE1521-A464-8D45-BE99-BD9D3D90C594}"/>
-    <hyperlink ref="E106" r:id="rId35" xr:uid="{8DC89559-C498-9048-BBE3-744354778197}"/>
-    <hyperlink ref="E107" r:id="rId36" xr:uid="{D46A07BF-B729-DD48-A33D-72A09F093892}"/>
-    <hyperlink ref="E108" r:id="rId37" xr:uid="{72083EE7-A622-EF4D-9EE2-FC859B8822C1}"/>
-    <hyperlink ref="E109" r:id="rId38" xr:uid="{F5A17BA0-1E3F-684D-A0CB-4C8392D806B9}"/>
-    <hyperlink ref="E110" r:id="rId39" xr:uid="{135F9111-BCA9-FD4C-8661-7739E35CC30E}"/>
-    <hyperlink ref="E111" r:id="rId40" xr:uid="{D7183734-6099-9A4A-9840-18C8DF20716F}"/>
-    <hyperlink ref="E112" r:id="rId41" xr:uid="{30B92D40-517F-6D46-98A7-16F85F8BA2BE}"/>
-    <hyperlink ref="E113" r:id="rId42" xr:uid="{1E7A4013-A7FF-9B44-A8A4-F7644BE54790}"/>
-    <hyperlink ref="E114" r:id="rId43" xr:uid="{B650C969-9C98-7349-8613-40DA7FF83726}"/>
-    <hyperlink ref="E117" r:id="rId44" xr:uid="{7C79B9D8-D0FA-984F-ACC5-9654554DE26B}"/>
-    <hyperlink ref="E118" r:id="rId45" xr:uid="{EC843BD4-878D-BE48-A9E3-176973276D0D}"/>
-    <hyperlink ref="E119" r:id="rId46" xr:uid="{806CD488-31F5-1440-9C53-786656FD1DC3}"/>
-    <hyperlink ref="E120" r:id="rId47" xr:uid="{6C38189C-4114-1040-A105-8733C4123D3B}"/>
-    <hyperlink ref="E124" r:id="rId48" xr:uid="{F527E923-EC86-D44A-9068-DAAF43D7C651}"/>
-    <hyperlink ref="E123" r:id="rId49" xr:uid="{03A5BBAA-A6AA-844A-8DCB-7616837ADB96}"/>
-    <hyperlink ref="E122" r:id="rId50" xr:uid="{A7C16FAA-D280-A94C-AFFF-F26210EF5642}"/>
+    <hyperlink ref="E128" r:id="rId35" xr:uid="{8DC89559-C498-9048-BBE3-744354778197}"/>
+    <hyperlink ref="E129" r:id="rId36" xr:uid="{D46A07BF-B729-DD48-A33D-72A09F093892}"/>
+    <hyperlink ref="E130" r:id="rId37" xr:uid="{72083EE7-A622-EF4D-9EE2-FC859B8822C1}"/>
+    <hyperlink ref="E131" r:id="rId38" xr:uid="{F5A17BA0-1E3F-684D-A0CB-4C8392D806B9}"/>
+    <hyperlink ref="E132" r:id="rId39" xr:uid="{135F9111-BCA9-FD4C-8661-7739E35CC30E}"/>
+    <hyperlink ref="E133" r:id="rId40" xr:uid="{D7183734-6099-9A4A-9840-18C8DF20716F}"/>
+    <hyperlink ref="E134" r:id="rId41" xr:uid="{30B92D40-517F-6D46-98A7-16F85F8BA2BE}"/>
+    <hyperlink ref="E135" r:id="rId42" xr:uid="{1E7A4013-A7FF-9B44-A8A4-F7644BE54790}"/>
+    <hyperlink ref="E136" r:id="rId43" xr:uid="{B650C969-9C98-7349-8613-40DA7FF83726}"/>
+    <hyperlink ref="E139" r:id="rId44" xr:uid="{7C79B9D8-D0FA-984F-ACC5-9654554DE26B}"/>
+    <hyperlink ref="E140" r:id="rId45" xr:uid="{EC843BD4-878D-BE48-A9E3-176973276D0D}"/>
+    <hyperlink ref="E141" r:id="rId46" xr:uid="{806CD488-31F5-1440-9C53-786656FD1DC3}"/>
+    <hyperlink ref="E142" r:id="rId47" xr:uid="{6C38189C-4114-1040-A105-8733C4123D3B}"/>
+    <hyperlink ref="E146" r:id="rId48" xr:uid="{F527E923-EC86-D44A-9068-DAAF43D7C651}"/>
+    <hyperlink ref="E145" r:id="rId49" xr:uid="{03A5BBAA-A6AA-844A-8DCB-7616837ADB96}"/>
+    <hyperlink ref="E144" r:id="rId50" xr:uid="{A7C16FAA-D280-A94C-AFFF-F26210EF5642}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/paperlist.xlsx
+++ b/paperlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvia.wang/Documents/phd/KGpaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F149F5F1-E65D-DE41-AAB3-8698A1CD0CF8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1193250B-50EC-8747-9E53-53FE67B3D38D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18160" yWindow="780" windowWidth="23900" windowHeight="16740" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
+    <workbookView xWindow="15580" yWindow="3120" windowWidth="23900" windowHeight="16740" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="249">
   <si>
     <t>Conference</t>
   </si>
@@ -663,9 +663,6 @@
     <t>Classifier/Vision/Few-shot learning</t>
   </si>
   <si>
-    <t>RE</t>
-  </si>
-  <si>
     <t>Embedding/RE</t>
   </si>
   <si>
@@ -708,9 +705,6 @@
     <t>Attention as Relation: Learning Supervised Multi-head Self-Attention for Relation Extraction</t>
   </si>
   <si>
-    <t>ER</t>
-  </si>
-  <si>
     <t>Attention-based Multi-level Feature Fusion for Named Entity Recognition</t>
   </si>
   <si>
@@ -762,9 +756,6 @@
     <t>Retrieve, Program, Repeat: Complex Knowledge Base Question Answering via Alternate Meta-learning</t>
   </si>
   <si>
-    <t>QA</t>
-  </si>
-  <si>
     <t>Transformers as Soft Reasoners over Language</t>
   </si>
   <si>
@@ -777,17 +768,17 @@
     <t>Two-Phase Hypergraph Based Reasoning with Dynamic Relations for Multi-Hop KBQA</t>
   </si>
   <si>
-    <t>Reasoning/QA</t>
-  </si>
-  <si>
     <t>UniTrans : Unifying Model Transfer and Data Transfer for Cross-Lingual Named Entity Recognition with Unlabeled Data</t>
+  </si>
+  <si>
+    <t>Reasoning/Q&amp;A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -823,6 +814,13 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -845,7 +843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -863,6 +861,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1178,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3103BAF2-20A2-A84B-B31B-72839568B135}">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1372,9 +1371,26 @@
         <v>44</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>2018</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -1383,160 +1399,169 @@
         <v>2018</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>2018</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
       <c r="C15">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C16">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
       </c>
       <c r="C17">
         <v>2019</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
       </c>
       <c r="C18">
         <v>2019</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>2019</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <v>2019</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C21">
         <v>2019</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22">
-        <v>2019</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27">
+        <v>2019</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C28">
         <v>2019</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>96</v>
-      </c>
       <c r="B29" t="s">
         <v>87</v>
       </c>
@@ -1544,17 +1569,32 @@
         <v>2019</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E30" s="1"/>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30">
+        <v>2019</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31">
+        <v>2019</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>89</v>
-      </c>
       <c r="B32" t="s">
         <v>87</v>
       </c>
@@ -1562,7 +1602,7 @@
         <v>2019</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1573,7 +1613,7 @@
         <v>2019</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1584,7 +1624,7 @@
         <v>2019</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1595,10 +1635,13 @@
         <v>2019</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
       <c r="B36" t="s">
         <v>87</v>
       </c>
@@ -1606,10 +1649,13 @@
         <v>2019</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
       <c r="B37" t="s">
         <v>87</v>
       </c>
@@ -1617,10 +1663,13 @@
         <v>2019</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
       <c r="B38" t="s">
         <v>87</v>
       </c>
@@ -1628,10 +1677,13 @@
         <v>2019</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
       <c r="B39" t="s">
         <v>87</v>
       </c>
@@ -1639,12 +1691,12 @@
         <v>2019</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
         <v>87</v>
@@ -1653,12 +1705,12 @@
         <v>2019</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
         <v>87</v>
@@ -1667,12 +1719,12 @@
         <v>2019</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
         <v>87</v>
@@ -1681,12 +1733,12 @@
         <v>2019</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
         <v>87</v>
@@ -1695,7 +1747,7 @@
         <v>2019</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1709,12 +1761,12 @@
         <v>2019</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
         <v>87</v>
@@ -1723,12 +1775,12 @@
         <v>2019</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
         <v>87</v>
@@ -1737,12 +1789,12 @@
         <v>2019</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
         <v>87</v>
@@ -1751,12 +1803,12 @@
         <v>2019</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
         <v>87</v>
@@ -1765,12 +1817,12 @@
         <v>2019</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
         <v>87</v>
@@ -1779,88 +1831,85 @@
         <v>2019</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50">
+        <v>2019</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51">
+        <v>2019</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52">
+        <v>2019</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53">
+        <v>2019</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54">
+        <v>2019</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55">
+        <v>2019</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>104</v>
       </c>
-      <c r="B50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50">
-        <v>2019</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51">
-        <v>2019</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52">
-        <v>2019</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>119</v>
-      </c>
-      <c r="B53" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53">
-        <v>2019</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54">
-        <v>2019</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55">
-        <v>2019</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>87</v>
       </c>
@@ -1868,7 +1917,7 @@
         <v>2019</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1879,12 +1928,12 @@
         <v>2019</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B58" t="s">
         <v>87</v>
@@ -1893,12 +1942,12 @@
         <v>2019</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
         <v>87</v>
@@ -1907,12 +1956,12 @@
         <v>2019</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
         <v>87</v>
@@ -1921,10 +1970,13 @@
         <v>2019</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
       <c r="B61" t="s">
         <v>87</v>
       </c>
@@ -1932,12 +1984,12 @@
         <v>2019</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
         <v>87</v>
@@ -1946,13 +1998,10 @@
         <v>2019</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>101</v>
-      </c>
       <c r="B63" t="s">
         <v>87</v>
       </c>
@@ -1960,12 +2009,12 @@
         <v>2019</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
         <v>87</v>
@@ -1974,12 +2023,12 @@
         <v>2019</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
         <v>87</v>
@@ -1988,65 +2037,74 @@
         <v>2019</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66">
-        <v>2019</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67">
-        <v>2019</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>28</v>
-      </c>
-      <c r="B68" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68">
-        <v>2019</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69">
+        <v>2020</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>28</v>
       </c>
-      <c r="B69" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69">
-        <v>2019</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>99</v>
+      <c r="B70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70">
+        <v>2020</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71">
+        <v>2020</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72">
+        <v>2020</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="B73" t="s">
         <v>46</v>
@@ -2055,12 +2113,15 @@
         <v>2020</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>209</v>
       </c>
       <c r="B74" t="s">
         <v>46</v>
@@ -2069,13 +2130,16 @@
         <v>2020</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>210</v>
+      </c>
       <c r="B75" t="s">
         <v>46</v>
       </c>
@@ -2083,15 +2147,15 @@
         <v>2020</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B76" t="s">
         <v>46</v>
@@ -2100,15 +2164,15 @@
         <v>2020</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B77" t="s">
         <v>46</v>
@@ -2117,15 +2181,15 @@
         <v>2020</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B78" t="s">
         <v>46</v>
@@ -2134,15 +2198,15 @@
         <v>2020</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
         <v>46</v>
@@ -2151,15 +2215,15 @@
         <v>2020</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B80" t="s">
         <v>46</v>
@@ -2168,15 +2232,15 @@
         <v>2020</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B81" t="s">
         <v>46</v>
@@ -2185,15 +2249,15 @@
         <v>2020</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="B82" t="s">
         <v>46</v>
@@ -2202,10 +2266,10 @@
         <v>2020</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2219,81 +2283,82 @@
         <v>2020</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>214</v>
-      </c>
-      <c r="B84" t="s">
-        <v>46</v>
-      </c>
-      <c r="C84">
-        <v>2020</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>215</v>
-      </c>
-      <c r="B85" t="s">
-        <v>46</v>
-      </c>
-      <c r="C85">
-        <v>2020</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>110</v>
-      </c>
-      <c r="B86" t="s">
-        <v>46</v>
-      </c>
-      <c r="C86">
-        <v>2020</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87">
+        <v>2020</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>28</v>
       </c>
-      <c r="B87" t="s">
-        <v>46</v>
-      </c>
-      <c r="C87">
-        <v>2020</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B88" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88">
+        <v>2020</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>227</v>
+      </c>
+      <c r="B89" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89">
+        <v>2020</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90">
+        <v>2020</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>127</v>
+      </c>
       <c r="B91" t="s">
         <v>163</v>
       </c>
@@ -2301,13 +2366,14 @@
         <v>2020</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
       <c r="B92" t="s">
         <v>163</v>
       </c>
@@ -2315,13 +2381,14 @@
         <v>2020</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>104</v>
+      </c>
       <c r="B93" t="s">
         <v>163</v>
       </c>
@@ -2329,252 +2396,470 @@
         <v>2020</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94">
+        <v>2020</v>
+      </c>
       <c r="D94" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95">
+        <v>2020</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" t="s">
+        <v>163</v>
+      </c>
+      <c r="C96">
+        <v>2020</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" t="s">
+        <v>163</v>
+      </c>
+      <c r="C97">
+        <v>2020</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" t="s">
+        <v>163</v>
+      </c>
+      <c r="C98">
+        <v>2020</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>127</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D96" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D97" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D98" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>163</v>
+      </c>
+      <c r="C99">
+        <v>2020</v>
+      </c>
       <c r="D99" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>163</v>
+      </c>
+      <c r="C100">
+        <v>2020</v>
+      </c>
       <c r="D100" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>227</v>
+      </c>
+      <c r="B101" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101">
+        <v>2020</v>
+      </c>
       <c r="D101" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" t="s">
+        <v>163</v>
+      </c>
+      <c r="C102">
+        <v>2020</v>
+      </c>
       <c r="D102" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E102" s="1"/>
+        <v>228</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>127</v>
+      </c>
+      <c r="B103" t="s">
+        <v>163</v>
+      </c>
+      <c r="C103">
+        <v>2020</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E103" s="1"/>
+        <v>229</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>127</v>
+        <v>205</v>
+      </c>
+      <c r="B104" t="s">
+        <v>163</v>
+      </c>
+      <c r="C104">
+        <v>2020</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E104" s="1"/>
+        <v>230</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>227</v>
       </c>
+      <c r="B105" t="s">
+        <v>163</v>
+      </c>
+      <c r="C105">
+        <v>2020</v>
+      </c>
       <c r="D105" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E105" s="1"/>
+        <v>231</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>229</v>
+        <v>28</v>
+      </c>
+      <c r="B106" t="s">
+        <v>163</v>
+      </c>
+      <c r="C106">
+        <v>2020</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E106" s="1"/>
+        <v>232</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>127</v>
+        <v>234</v>
+      </c>
+      <c r="B107" t="s">
+        <v>163</v>
+      </c>
+      <c r="C107">
+        <v>2020</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>127</v>
+        <v>200</v>
+      </c>
+      <c r="B108" t="s">
+        <v>163</v>
+      </c>
+      <c r="C108">
+        <v>2020</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>205</v>
+        <v>227</v>
+      </c>
+      <c r="B109" t="s">
+        <v>163</v>
+      </c>
+      <c r="C109">
+        <v>2020</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>229</v>
+        <v>238</v>
+      </c>
+      <c r="B110" t="s">
+        <v>163</v>
+      </c>
+      <c r="C110">
+        <v>2020</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>28</v>
+        <v>101</v>
+      </c>
+      <c r="B111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111">
+        <v>2020</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>236</v>
+        <v>204</v>
+      </c>
+      <c r="B112" t="s">
+        <v>163</v>
+      </c>
+      <c r="C112">
+        <v>2020</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>212</v>
+        <v>200</v>
+      </c>
+      <c r="B113" t="s">
+        <v>163</v>
+      </c>
+      <c r="C113">
+        <v>2020</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>229</v>
+        <v>127</v>
+      </c>
+      <c r="B114" t="s">
+        <v>163</v>
+      </c>
+      <c r="C114">
+        <v>2020</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>240</v>
+        <v>101</v>
+      </c>
+      <c r="B115" t="s">
+        <v>163</v>
+      </c>
+      <c r="C115">
+        <v>2020</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>101</v>
+        <v>204</v>
+      </c>
+      <c r="B116" t="s">
+        <v>163</v>
+      </c>
+      <c r="C116">
+        <v>2020</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>204</v>
       </c>
+      <c r="B117" t="s">
+        <v>163</v>
+      </c>
+      <c r="C117">
+        <v>2020</v>
+      </c>
       <c r="D117" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>212</v>
+        <v>248</v>
+      </c>
+      <c r="B118" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118">
+        <v>2020</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>245</v>
+        <v>227</v>
+      </c>
+      <c r="B119" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119">
+        <v>2020</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>101</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>204</v>
-      </c>
-      <c r="D121" s="2" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>204</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>250</v>
+        <v>200</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>2020</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>249</v>
+        <v>170</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>229</v>
+        <v>205</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>2020</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>251</v>
+        <v>172</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>201</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>2020</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>202</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>2020</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>203</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>2020</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="B128" t="s">
         <v>2</v>
@@ -2582,16 +2867,16 @@
       <c r="C128">
         <v>2020</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>170</v>
+      <c r="D128" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B129" t="s">
         <v>2</v>
@@ -2600,15 +2885,15 @@
         <v>2020</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>201</v>
+        <v>28</v>
       </c>
       <c r="B130" t="s">
         <v>2</v>
@@ -2617,100 +2902,100 @@
         <v>2020</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="B131" t="s">
         <v>2</v>
       </c>
       <c r="C131">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B132" t="s">
         <v>2</v>
       </c>
       <c r="C132">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>110</v>
+        <v>207</v>
       </c>
       <c r="B133" t="s">
         <v>2</v>
       </c>
       <c r="C133">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B134" t="s">
         <v>2</v>
       </c>
       <c r="C134">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="B135" t="s">
         <v>2</v>
       </c>
       <c r="C135">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="B136" t="s">
         <v>2</v>
@@ -2719,15 +3004,15 @@
         <v>2019</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="B137" t="s">
         <v>2</v>
@@ -2736,15 +3021,15 @@
         <v>2019</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="B138" t="s">
         <v>2</v>
@@ -2753,15 +3038,15 @@
         <v>2019</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="B139" t="s">
         <v>2</v>
@@ -2770,15 +3055,15 @@
         <v>2019</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="B140" t="s">
         <v>2</v>
@@ -2787,15 +3072,15 @@
         <v>2019</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="B141" t="s">
         <v>2</v>
@@ -2804,15 +3089,15 @@
         <v>2019</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="E141" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="B142" t="s">
         <v>2</v>
@@ -2821,15 +3106,35 @@
         <v>2019</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>2019</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B144" t="s">
         <v>2</v>
@@ -2837,176 +3142,71 @@
       <c r="C144">
         <v>2019</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>78</v>
+      <c r="D144" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>81</v>
-      </c>
-      <c r="B145" t="s">
-        <v>2</v>
-      </c>
-      <c r="C145">
-        <v>2019</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>81</v>
-      </c>
-      <c r="B146" t="s">
-        <v>2</v>
-      </c>
-      <c r="C146">
-        <v>2019</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>50</v>
-      </c>
-      <c r="B147" t="s">
-        <v>2</v>
-      </c>
-      <c r="C147">
-        <v>2019</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E147" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>51</v>
-      </c>
-      <c r="B148" t="s">
-        <v>2</v>
-      </c>
-      <c r="C148">
-        <v>2019</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>28</v>
-      </c>
-      <c r="B149" t="s">
-        <v>2</v>
-      </c>
-      <c r="C149">
-        <v>2019</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H149" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>28</v>
-      </c>
-      <c r="B150" t="s">
-        <v>2</v>
-      </c>
-      <c r="C150">
-        <v>2019</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E150" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F150" s="5" t="s">
+      <c r="F144" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H144" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E149" r:id="rId1" xr:uid="{09A953FC-8077-004E-830A-11F07D4A00A2}"/>
+    <hyperlink ref="E143" r:id="rId1" xr:uid="{09A953FC-8077-004E-830A-11F07D4A00A2}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{5AA7BD6A-34D9-6840-9A54-00D639411171}"/>
-    <hyperlink ref="E150" r:id="rId3" xr:uid="{5A653AD7-8086-9E4E-8995-0AB36BB446EB}"/>
+    <hyperlink ref="E144" r:id="rId3" xr:uid="{5A653AD7-8086-9E4E-8995-0AB36BB446EB}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{5E05E112-7F10-BA44-BB9E-D2995CA24969}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{F9F4AC28-1768-6A4B-B95A-118F714F264A}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{186052F4-16A4-4E4C-89E3-9CED1321F3A8}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{2EF7F4BA-C582-E247-8A58-32F96775F02C}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{13DEB81E-0DD2-3F4F-B670-1CF6828E858F}"/>
     <hyperlink ref="E11" r:id="rId9" xr:uid="{A7684A19-311B-8E4C-A39E-F37EFED72D18}"/>
-    <hyperlink ref="E87" r:id="rId10" xr:uid="{77F624A6-84DE-B048-B27D-99479B946D80}"/>
-    <hyperlink ref="E13" r:id="rId11" xr:uid="{B980A26F-DCCA-4B44-BEA7-EEF09B85221E}"/>
-    <hyperlink ref="E15" r:id="rId12" xr:uid="{C91061E1-9240-774D-9434-9701C1B9134D}"/>
-    <hyperlink ref="E17" r:id="rId13" xr:uid="{BADAE6F3-0E95-7841-AF12-A89E91791ECB}"/>
-    <hyperlink ref="E18" r:id="rId14" xr:uid="{6970BD25-60C9-7B45-BB0B-EBE4EF25C429}"/>
-    <hyperlink ref="E19" r:id="rId15" xr:uid="{08699B29-665C-D343-B623-F51A3824B32E}"/>
-    <hyperlink ref="E20" r:id="rId16" xr:uid="{3D39DE33-A33E-BA4E-A8F4-F47B9A5C423D}"/>
-    <hyperlink ref="E21" r:id="rId17" xr:uid="{AA7A4095-AA7C-A04C-B363-4819D759227B}"/>
-    <hyperlink ref="E22" r:id="rId18" xr:uid="{4B9DB0ED-A50C-4649-B152-FD6D4707F600}"/>
-    <hyperlink ref="E28" r:id="rId19" xr:uid="{39F35210-ADF1-574D-836E-0DB0C64EE3E6}"/>
-    <hyperlink ref="E74" r:id="rId20" xr:uid="{58521CF6-4DD6-864A-9353-6E6B7D19614A}"/>
-    <hyperlink ref="E75" r:id="rId21" xr:uid="{0956436E-04D5-8C40-9A62-1A7842FBDE65}"/>
-    <hyperlink ref="E76" r:id="rId22" xr:uid="{DDCEC05A-7108-6349-A790-E82B16ABD0B1}"/>
-    <hyperlink ref="E77" r:id="rId23" xr:uid="{47269675-1D6E-BD43-B5BF-4B79E4A65C97}"/>
-    <hyperlink ref="E78" r:id="rId24" xr:uid="{999331A5-313D-B045-8D03-9D93C6BA2371}"/>
-    <hyperlink ref="E79" r:id="rId25" xr:uid="{01C1848F-508E-FF49-B863-F87723FA88F7}"/>
-    <hyperlink ref="E80" r:id="rId26" xr:uid="{81E54824-45CF-F542-86FA-5412641B7ED5}"/>
-    <hyperlink ref="E81" r:id="rId27" xr:uid="{5F6311DB-0824-6548-BB18-1792FF9556ED}"/>
-    <hyperlink ref="E82" r:id="rId28" xr:uid="{5767A429-B469-5E49-99C6-664698601658}"/>
-    <hyperlink ref="E83" r:id="rId29" xr:uid="{A1305B61-612F-CC49-AB79-BF3CE347EB34}"/>
-    <hyperlink ref="E85" r:id="rId30" xr:uid="{420F1CFC-B027-914F-A43C-5D27390AAF98}"/>
-    <hyperlink ref="E86" r:id="rId31" xr:uid="{2E4589CB-E153-AE47-8923-31D7D90F4416}"/>
-    <hyperlink ref="E91" r:id="rId32" xr:uid="{CE133BD8-FF82-7849-B882-E0C8E70F5EC1}"/>
-    <hyperlink ref="E92" r:id="rId33" xr:uid="{64C74A7C-DC23-114F-AB35-940BB0CC7A36}"/>
-    <hyperlink ref="E93" r:id="rId34" xr:uid="{75DE1521-A464-8D45-BE99-BD9D3D90C594}"/>
-    <hyperlink ref="E128" r:id="rId35" xr:uid="{8DC89559-C498-9048-BBE3-744354778197}"/>
-    <hyperlink ref="E129" r:id="rId36" xr:uid="{D46A07BF-B729-DD48-A33D-72A09F093892}"/>
-    <hyperlink ref="E130" r:id="rId37" xr:uid="{72083EE7-A622-EF4D-9EE2-FC859B8822C1}"/>
-    <hyperlink ref="E131" r:id="rId38" xr:uid="{F5A17BA0-1E3F-684D-A0CB-4C8392D806B9}"/>
-    <hyperlink ref="E132" r:id="rId39" xr:uid="{135F9111-BCA9-FD4C-8661-7739E35CC30E}"/>
-    <hyperlink ref="E133" r:id="rId40" xr:uid="{D7183734-6099-9A4A-9840-18C8DF20716F}"/>
-    <hyperlink ref="E134" r:id="rId41" xr:uid="{30B92D40-517F-6D46-98A7-16F85F8BA2BE}"/>
-    <hyperlink ref="E135" r:id="rId42" xr:uid="{1E7A4013-A7FF-9B44-A8A4-F7644BE54790}"/>
-    <hyperlink ref="E136" r:id="rId43" xr:uid="{B650C969-9C98-7349-8613-40DA7FF83726}"/>
-    <hyperlink ref="E139" r:id="rId44" xr:uid="{7C79B9D8-D0FA-984F-ACC5-9654554DE26B}"/>
-    <hyperlink ref="E140" r:id="rId45" xr:uid="{EC843BD4-878D-BE48-A9E3-176973276D0D}"/>
-    <hyperlink ref="E141" r:id="rId46" xr:uid="{806CD488-31F5-1440-9C53-786656FD1DC3}"/>
-    <hyperlink ref="E142" r:id="rId47" xr:uid="{6C38189C-4114-1040-A105-8733C4123D3B}"/>
-    <hyperlink ref="E146" r:id="rId48" xr:uid="{F527E923-EC86-D44A-9068-DAAF43D7C651}"/>
-    <hyperlink ref="E145" r:id="rId49" xr:uid="{03A5BBAA-A6AA-844A-8DCB-7616837ADB96}"/>
-    <hyperlink ref="E144" r:id="rId50" xr:uid="{A7C16FAA-D280-A94C-AFFF-F26210EF5642}"/>
+    <hyperlink ref="E83" r:id="rId10" xr:uid="{77F624A6-84DE-B048-B27D-99479B946D80}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{B980A26F-DCCA-4B44-BEA7-EEF09B85221E}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{C91061E1-9240-774D-9434-9701C1B9134D}"/>
+    <hyperlink ref="E15" r:id="rId13" xr:uid="{BADAE6F3-0E95-7841-AF12-A89E91791ECB}"/>
+    <hyperlink ref="E16" r:id="rId14" xr:uid="{6970BD25-60C9-7B45-BB0B-EBE4EF25C429}"/>
+    <hyperlink ref="E17" r:id="rId15" xr:uid="{08699B29-665C-D343-B623-F51A3824B32E}"/>
+    <hyperlink ref="E18" r:id="rId16" xr:uid="{3D39DE33-A33E-BA4E-A8F4-F47B9A5C423D}"/>
+    <hyperlink ref="E19" r:id="rId17" xr:uid="{AA7A4095-AA7C-A04C-B363-4819D759227B}"/>
+    <hyperlink ref="E20" r:id="rId18" xr:uid="{4B9DB0ED-A50C-4649-B152-FD6D4707F600}"/>
+    <hyperlink ref="E21" r:id="rId19" xr:uid="{39F35210-ADF1-574D-836E-0DB0C64EE3E6}"/>
+    <hyperlink ref="E70" r:id="rId20" xr:uid="{58521CF6-4DD6-864A-9353-6E6B7D19614A}"/>
+    <hyperlink ref="E71" r:id="rId21" xr:uid="{0956436E-04D5-8C40-9A62-1A7842FBDE65}"/>
+    <hyperlink ref="E72" r:id="rId22" xr:uid="{DDCEC05A-7108-6349-A790-E82B16ABD0B1}"/>
+    <hyperlink ref="E73" r:id="rId23" xr:uid="{47269675-1D6E-BD43-B5BF-4B79E4A65C97}"/>
+    <hyperlink ref="E74" r:id="rId24" xr:uid="{999331A5-313D-B045-8D03-9D93C6BA2371}"/>
+    <hyperlink ref="E75" r:id="rId25" xr:uid="{01C1848F-508E-FF49-B863-F87723FA88F7}"/>
+    <hyperlink ref="E76" r:id="rId26" xr:uid="{81E54824-45CF-F542-86FA-5412641B7ED5}"/>
+    <hyperlink ref="E77" r:id="rId27" xr:uid="{5F6311DB-0824-6548-BB18-1792FF9556ED}"/>
+    <hyperlink ref="E78" r:id="rId28" xr:uid="{5767A429-B469-5E49-99C6-664698601658}"/>
+    <hyperlink ref="E79" r:id="rId29" xr:uid="{A1305B61-612F-CC49-AB79-BF3CE347EB34}"/>
+    <hyperlink ref="E81" r:id="rId30" xr:uid="{420F1CFC-B027-914F-A43C-5D27390AAF98}"/>
+    <hyperlink ref="E82" r:id="rId31" xr:uid="{2E4589CB-E153-AE47-8923-31D7D90F4416}"/>
+    <hyperlink ref="E87" r:id="rId32" xr:uid="{CE133BD8-FF82-7849-B882-E0C8E70F5EC1}"/>
+    <hyperlink ref="E88" r:id="rId33" xr:uid="{64C74A7C-DC23-114F-AB35-940BB0CC7A36}"/>
+    <hyperlink ref="E89" r:id="rId34" xr:uid="{75DE1521-A464-8D45-BE99-BD9D3D90C594}"/>
+    <hyperlink ref="E123" r:id="rId35" xr:uid="{8DC89559-C498-9048-BBE3-744354778197}"/>
+    <hyperlink ref="E124" r:id="rId36" xr:uid="{D46A07BF-B729-DD48-A33D-72A09F093892}"/>
+    <hyperlink ref="E125" r:id="rId37" xr:uid="{72083EE7-A622-EF4D-9EE2-FC859B8822C1}"/>
+    <hyperlink ref="E126" r:id="rId38" xr:uid="{F5A17BA0-1E3F-684D-A0CB-4C8392D806B9}"/>
+    <hyperlink ref="E127" r:id="rId39" xr:uid="{135F9111-BCA9-FD4C-8661-7739E35CC30E}"/>
+    <hyperlink ref="E128" r:id="rId40" xr:uid="{D7183734-6099-9A4A-9840-18C8DF20716F}"/>
+    <hyperlink ref="E129" r:id="rId41" xr:uid="{30B92D40-517F-6D46-98A7-16F85F8BA2BE}"/>
+    <hyperlink ref="E130" r:id="rId42" xr:uid="{1E7A4013-A7FF-9B44-A8A4-F7644BE54790}"/>
+    <hyperlink ref="E131" r:id="rId43" xr:uid="{B650C969-9C98-7349-8613-40DA7FF83726}"/>
+    <hyperlink ref="E134" r:id="rId44" xr:uid="{7C79B9D8-D0FA-984F-ACC5-9654554DE26B}"/>
+    <hyperlink ref="E135" r:id="rId45" xr:uid="{EC843BD4-878D-BE48-A9E3-176973276D0D}"/>
+    <hyperlink ref="E136" r:id="rId46" xr:uid="{806CD488-31F5-1440-9C53-786656FD1DC3}"/>
+    <hyperlink ref="E137" r:id="rId47" xr:uid="{6C38189C-4114-1040-A105-8733C4123D3B}"/>
+    <hyperlink ref="E140" r:id="rId48" xr:uid="{F527E923-EC86-D44A-9068-DAAF43D7C651}"/>
+    <hyperlink ref="E139" r:id="rId49" xr:uid="{03A5BBAA-A6AA-844A-8DCB-7616837ADB96}"/>
+    <hyperlink ref="E138" r:id="rId50" xr:uid="{A7C16FAA-D280-A94C-AFFF-F26210EF5642}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/paperlist.xlsx
+++ b/paperlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvia.wang/Documents/phd/KGpaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1193250B-50EC-8747-9E53-53FE67B3D38D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3E0C86-D861-4C49-AF05-6F8861A8ACE5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15580" yWindow="3120" windowWidth="23900" windowHeight="16740" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
+    <workbookView xWindow="19500" yWindow="2260" windowWidth="23900" windowHeight="16740" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="261">
   <si>
     <t>Conference</t>
   </si>
@@ -772,6 +772,48 @@
   </si>
   <si>
     <t>Reasoning/Q&amp;A</t>
+  </si>
+  <si>
+    <t>Q&amp;A　</t>
+  </si>
+  <si>
+    <t>discovery of category axioms that uses
+information from the category network, category instances, and their lexicalisations. Ontology learning, DBpedia</t>
+  </si>
+  <si>
+    <t>Cardinality mining · Contextual constraint</t>
+  </si>
+  <si>
+    <t>Cardinality mining/Contextual constraint</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
+  </si>
+  <si>
+    <t>initialize latent factors in Factorization
+Machines by using semantic features coming from a knowledge
+graph in order to train an interpretable model. With our model, semantic
+features are injected into the learning process to retain the original
+informativeness of the items available in the dataset.</t>
+  </si>
+  <si>
+    <t>numerical aggregators/rewrite expensive queries into a set of queries that each satisfy the fair use policy.</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Ontology/Correction</t>
+  </si>
+  <si>
+    <t>map an adjective to several existential restrictions or their negation forms</t>
+  </si>
+  <si>
+    <t>extracts bilingual alignments between a source and target knowledge graph and learns how to translate from one to the other by relying on two different recurrent neural network models along with knowledge graph embeddings.</t>
+  </si>
+  <si>
+    <t>We observe how classes, properties and individuals are used
+in practice. We also investigate how hierarchies of concepts are structured, and how much they are linked.</t>
   </si>
 </sst>
 </file>
@@ -1179,15 +1221,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3103BAF2-20A2-A84B-B31B-72839568B135}">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="4" max="4" width="78.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
     <col min="6" max="7" width="60.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1447,7 +1489,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1464,7 +1506,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -1481,7 +1523,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -1498,7 +1540,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -1515,7 +1557,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1532,7 +1574,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -1547,9 +1589,9 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s">
         <v>87</v>
@@ -1561,7 +1603,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
       <c r="B29" t="s">
         <v>87</v>
       </c>
@@ -1571,8 +1616,14 @@
       <c r="D29" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>252</v>
+      </c>
       <c r="B30" t="s">
         <v>87</v>
       </c>
@@ -1582,8 +1633,14 @@
       <c r="D30" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>253</v>
+      </c>
       <c r="B31" t="s">
         <v>87</v>
       </c>
@@ -1593,8 +1650,11 @@
       <c r="D31" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>87</v>
       </c>
@@ -1605,7 +1665,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
       <c r="B33" t="s">
         <v>87</v>
       </c>
@@ -1615,8 +1678,11 @@
       <c r="D33" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F33" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>87</v>
       </c>
@@ -1627,7 +1693,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>256</v>
+      </c>
       <c r="B35" t="s">
         <v>87</v>
       </c>
@@ -1638,7 +1707,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -1652,7 +1721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -1666,7 +1735,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -1680,7 +1749,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -1694,7 +1763,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -1708,7 +1777,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -1722,7 +1791,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -1736,7 +1805,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -1750,7 +1819,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -1764,7 +1833,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>110</v>
       </c>
@@ -1778,7 +1847,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -1792,7 +1861,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>110</v>
       </c>
@@ -1806,7 +1875,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -1820,7 +1889,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>119</v>
       </c>
@@ -1834,7 +1903,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>257</v>
+      </c>
       <c r="B50" t="s">
         <v>87</v>
       </c>
@@ -1845,7 +1917,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>127</v>
+      </c>
       <c r="B51" t="s">
         <v>87</v>
       </c>
@@ -1855,8 +1930,11 @@
       <c r="D51" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F51" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>87</v>
       </c>
@@ -1867,7 +1945,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>205</v>
+      </c>
       <c r="B53" t="s">
         <v>87</v>
       </c>
@@ -1877,8 +1958,11 @@
       <c r="D53" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F53" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -1892,7 +1976,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>127</v>
       </c>
@@ -1906,7 +1990,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -1920,7 +2004,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>205</v>
+      </c>
       <c r="B57" t="s">
         <v>87</v>
       </c>
@@ -1931,7 +2018,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -1945,7 +2032,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -1959,7 +2046,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -1973,7 +2060,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -1987,7 +2074,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -2001,7 +2088,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>87</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="D63" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F63" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>28</v>
       </c>

--- a/paperlist.xlsx
+++ b/paperlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvia.wang/Documents/phd/KGpaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3E0C86-D861-4C49-AF05-6F8861A8ACE5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B8C71E-8C9A-2941-A432-5901BB44A56B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19500" yWindow="2260" windowWidth="23900" windowHeight="16740" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
+    <workbookView xWindow="9300" yWindow="1600" windowWidth="29640" windowHeight="16740" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="262">
   <si>
     <t>Conference</t>
   </si>
@@ -294,9 +294,6 @@
     <t>TransEdge: Translating Relation-contextualized Embeddings for Knowledge Graphs</t>
   </si>
   <si>
-    <t>Question and answering</t>
-  </si>
-  <si>
     <t>Summarizing News Articles using Question-and-Answer Pairs via Learning</t>
   </si>
   <si>
@@ -309,13 +306,7 @@
     <t>How to make latent factors interpretable by feeding Factorization machines with knowledge graphs</t>
   </si>
   <si>
-    <t>Qualitative Ontology Ranking: The Web of Things Case</t>
-  </si>
-  <si>
     <t>Entity Enabled Relation Linking</t>
-  </si>
-  <si>
-    <t>Relation Linking</t>
   </si>
   <si>
     <t>Anytime Large-Scale Analytics of Linked Open Data</t>
@@ -814,6 +805,18 @@
   <si>
     <t>We observe how classes, properties and individuals are used
 in practice. We also investigate how hierarchies of concepts are structured, and how much they are linked.</t>
+  </si>
+  <si>
+    <t>CNN/LSTM</t>
+  </si>
+  <si>
+    <t>reasoning can be independently performed on different sites following a process of knowledge propagation through the network of the ontologies via the alignments with link keys.</t>
+  </si>
+  <si>
+    <t>Popularity-Driven Ontology Ranking Using Qualitative Features</t>
+  </si>
+  <si>
+    <t>Query/Ontology</t>
   </si>
 </sst>
 </file>
@@ -1221,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3103BAF2-20A2-A84B-B31B-72839568B135}">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1576,7 +1579,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
         <v>87</v>
@@ -1585,13 +1588,13 @@
         <v>2019</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s">
         <v>87</v>
@@ -1600,12 +1603,12 @@
         <v>2019</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
         <v>87</v>
@@ -1614,15 +1617,15 @@
         <v>2019</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s">
         <v>87</v>
@@ -1631,15 +1634,15 @@
         <v>2019</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s">
         <v>87</v>
@@ -1648,26 +1651,29 @@
         <v>2019</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>261</v>
+      </c>
       <c r="B32" t="s">
         <v>87</v>
       </c>
       <c r="C32">
         <v>2019</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>94</v>
+      <c r="D32" s="5" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
         <v>87</v>
@@ -1676,10 +1682,10 @@
         <v>2019</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1690,27 +1696,30 @@
         <v>2019</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35">
+        <v>2019</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>256</v>
-      </c>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35">
-        <v>2019</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>101</v>
-      </c>
       <c r="B36" t="s">
         <v>87</v>
       </c>
@@ -1718,12 +1727,15 @@
         <v>2019</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
         <v>87</v>
@@ -1732,12 +1744,12 @@
         <v>2019</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
         <v>87</v>
@@ -1746,12 +1758,12 @@
         <v>2019</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
         <v>87</v>
@@ -1760,12 +1772,12 @@
         <v>2019</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
         <v>87</v>
@@ -1774,12 +1786,12 @@
         <v>2019</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
         <v>87</v>
@@ -1788,12 +1800,12 @@
         <v>2019</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s">
         <v>87</v>
@@ -1802,12 +1814,12 @@
         <v>2019</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
         <v>87</v>
@@ -1816,12 +1828,12 @@
         <v>2019</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
@@ -1830,12 +1842,12 @@
         <v>2019</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
         <v>87</v>
@@ -1844,12 +1856,12 @@
         <v>2019</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
         <v>87</v>
@@ -1858,12 +1870,12 @@
         <v>2019</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s">
         <v>87</v>
@@ -1872,12 +1884,12 @@
         <v>2019</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
         <v>87</v>
@@ -1886,12 +1898,12 @@
         <v>2019</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
         <v>87</v>
@@ -1900,12 +1912,12 @@
         <v>2019</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s">
         <v>87</v>
@@ -1914,12 +1926,12 @@
         <v>2019</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s">
         <v>87</v>
@@ -1928,10 +1940,10 @@
         <v>2019</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1942,12 +1954,12 @@
         <v>2019</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B53" t="s">
         <v>87</v>
@@ -1956,15 +1968,15 @@
         <v>2019</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
         <v>87</v>
@@ -1973,12 +1985,12 @@
         <v>2019</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B55" t="s">
         <v>87</v>
@@ -1987,12 +1999,12 @@
         <v>2019</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
         <v>87</v>
@@ -2001,12 +2013,12 @@
         <v>2019</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
         <v>87</v>
@@ -2015,12 +2027,12 @@
         <v>2019</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
         <v>87</v>
@@ -2029,12 +2041,12 @@
         <v>2019</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
         <v>87</v>
@@ -2043,12 +2055,12 @@
         <v>2019</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B60" t="s">
         <v>87</v>
@@ -2057,12 +2069,12 @@
         <v>2019</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
         <v>87</v>
@@ -2071,12 +2083,12 @@
         <v>2019</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B62" t="s">
         <v>87</v>
@@ -2085,7 +2097,7 @@
         <v>2019</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -2096,10 +2108,10 @@
         <v>2019</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2127,12 +2139,12 @@
         <v>2019</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
         <v>46</v>
@@ -2141,7 +2153,7 @@
         <v>2020</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2155,10 +2167,10 @@
         <v>2020</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2169,15 +2181,15 @@
         <v>2020</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B72" t="s">
         <v>46</v>
@@ -2186,15 +2198,15 @@
         <v>2020</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B73" t="s">
         <v>46</v>
@@ -2203,15 +2215,15 @@
         <v>2020</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B74" t="s">
         <v>46</v>
@@ -2220,15 +2232,15 @@
         <v>2020</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B75" t="s">
         <v>46</v>
@@ -2237,15 +2249,15 @@
         <v>2020</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B76" t="s">
         <v>46</v>
@@ -2254,15 +2266,15 @@
         <v>2020</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B77" t="s">
         <v>46</v>
@@ -2271,15 +2283,15 @@
         <v>2020</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B78" t="s">
         <v>46</v>
@@ -2288,10 +2300,10 @@
         <v>2020</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2305,15 +2317,15 @@
         <v>2020</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B80" t="s">
         <v>46</v>
@@ -2322,15 +2334,15 @@
         <v>2020</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B81" t="s">
         <v>46</v>
@@ -2339,15 +2351,15 @@
         <v>2020</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B82" t="s">
         <v>46</v>
@@ -2356,10 +2368,10 @@
         <v>2020</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2381,19 +2393,19 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B87" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C87">
         <v>2020</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2401,269 +2413,269 @@
         <v>28</v>
       </c>
       <c r="B88" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88">
+        <v>2020</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C88">
-        <v>2020</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E88" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C89">
         <v>2020</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C90">
         <v>2020</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C91">
         <v>2020</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C92">
         <v>2020</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C93">
         <v>2020</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C94">
         <v>2020</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C95">
         <v>2020</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C96">
         <v>2020</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C97">
         <v>2020</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B98" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C98">
         <v>2020</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B99" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C99">
         <v>2020</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B100" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C100">
         <v>2020</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C101">
         <v>2020</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B102" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C102">
         <v>2020</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B103" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C103">
         <v>2020</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C104">
         <v>2020</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C105">
         <v>2020</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2671,200 +2683,200 @@
         <v>28</v>
       </c>
       <c r="B106" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C106">
         <v>2020</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B107" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C107">
         <v>2020</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B108" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C108">
         <v>2020</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B109" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C109">
         <v>2020</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B110" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C110">
         <v>2020</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B111" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C111">
         <v>2020</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B112" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C112">
         <v>2020</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B113" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C113">
         <v>2020</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B114" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C114">
         <v>2020</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B115" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C115">
         <v>2020</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B116" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C116">
         <v>2020</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C117">
         <v>2020</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B118" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C118">
         <v>2020</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B119" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C119">
         <v>2020</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
@@ -2873,15 +2885,15 @@
         <v>2020</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B124" t="s">
         <v>2</v>
@@ -2890,15 +2902,15 @@
         <v>2020</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
@@ -2907,15 +2919,15 @@
         <v>2020</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
@@ -2924,15 +2936,15 @@
         <v>2020</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
@@ -2941,15 +2953,15 @@
         <v>2020</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B128" t="s">
         <v>2</v>
@@ -2958,15 +2970,15 @@
         <v>2020</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B129" t="s">
         <v>2</v>
@@ -2975,10 +2987,10 @@
         <v>2020</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -2992,15 +3004,15 @@
         <v>2020</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B131" t="s">
         <v>2</v>
@@ -3009,15 +3021,15 @@
         <v>2019</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B132" t="s">
         <v>2</v>
@@ -3026,15 +3038,15 @@
         <v>2019</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B133" t="s">
         <v>2</v>
@@ -3043,15 +3055,15 @@
         <v>2019</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B134" t="s">
         <v>2</v>
@@ -3060,15 +3072,15 @@
         <v>2019</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B135" t="s">
         <v>2</v>
@@ -3077,15 +3089,15 @@
         <v>2019</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B136" t="s">
         <v>2</v>
@@ -3094,15 +3106,15 @@
         <v>2019</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B137" t="s">
         <v>2</v>
@@ -3111,10 +3123,10 @@
         <v>2019</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">

--- a/paperlist.xlsx
+++ b/paperlist.xlsx
@@ -2,19 +2,98 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvia.wang/Documents/phd/KGpaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B8C71E-8C9A-2941-A432-5901BB44A56B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A173AB8D-0D09-ED49-952E-3A7F4A46068A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="1600" windowWidth="29640" windowHeight="16740" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
+    <workbookView xWindow="7180" yWindow="1240" windowWidth="29640" windowHeight="16740" activeTab="5" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="origin" sheetId="1" r:id="rId1"/>
+    <sheet name="acl" sheetId="6" r:id="rId2"/>
+    <sheet name="aaai" sheetId="4" r:id="rId3"/>
+    <sheet name="ijcai" sheetId="5" r:id="rId4"/>
+    <sheet name="iswc" sheetId="2" r:id="rId5"/>
+    <sheet name="summary" sheetId="3" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">summary!$A$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">summary!$A$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">summary!$A$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">summary!$A$4</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">summary!$A$5</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">summary!$B$1:$N$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">summary!$B$2:$N$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">summary!$B$3:$N$3</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">summary!$B$4:$N$4</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">summary!$B$5:$N$5</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">summary!$A$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">summary!$A$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">summary!$A$4</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">summary!$A$4</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">summary!$A$5</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">summary!$B$1:$N$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">summary!$B$2:$N$2</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">summary!$B$3:$N$3</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">summary!$B$4:$N$4</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">summary!$B$5:$N$5</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">summary!$A$2</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">summary!$A$3</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">summary!$A$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">summary!$A$5</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">summary!$A$5</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">summary!$B$1:$N$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">summary!$B$2:$N$2</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">summary!$B$3:$N$3</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">summary!$B$4:$N$4</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">summary!$B$5:$N$5</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">summary!$A$2</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">summary!$A$3</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">summary!$A$4</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">summary!$A$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">summary!$B$1:$N$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">summary!$B$1:$N$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">summary!$B$2:$N$2</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">summary!$B$3:$N$3</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">summary!$B$4:$N$4</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">summary!$B$5:$N$5</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">summary!$A$2</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">summary!$A$3</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">summary!$A$4</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">summary!$A$5</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">summary!$B$1:$N$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">summary!$B$2:$N$2</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">summary!$B$2:$N$2</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">summary!$B$3:$N$3</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">summary!$B$4:$N$4</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">summary!$B$5:$N$5</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">summary!$A$2</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">summary!$A$3</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">summary!$A$4</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">summary!$A$5</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">summary!$B$1:$N$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">summary!$B$2:$N$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">summary!$B$3:$N$3</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">summary!$B$3:$N$3</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">summary!$B$4:$N$4</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">summary!$B$5:$N$5</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">summary!$A$2</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">summary!$A$3</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">summary!$A$4</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">summary!$A$5</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">summary!$B$1:$N$1</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">summary!$B$2:$N$2</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">summary!$B$3:$N$3</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">summary!$B$4:$N$4</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">summary!$B$4:$N$4</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">summary!$B$5:$N$5</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">summary!$B$5:$N$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">summary!$A$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="266">
   <si>
     <t>Conference</t>
   </si>
@@ -818,12 +897,24 @@
   <si>
     <t>Query/Ontology</t>
   </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other </t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Entity Recognition</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -866,6 +957,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -888,7 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -907,6 +1005,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -923,6 +1022,1348 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Topic Range</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ISWC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Linking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q&amp;A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completion</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Query</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Classification</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Validation</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alignment</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Reasoning</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Embedding</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Other </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Construction</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Entity Recognition</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Relation Extraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$B$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-513A-A147-95FE-B798656CCA83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AAAI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Linking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q&amp;A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completion</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Query</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Classification</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Validation</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alignment</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Reasoning</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Embedding</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Other </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Construction</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Entity Recognition</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Relation Extraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$B$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-513A-A147-95FE-B798656CCA83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IJCAI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Linking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q&amp;A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completion</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Query</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Classification</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Validation</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alignment</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Reasoning</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Embedding</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Other </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Construction</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Entity Recognition</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Relation Extraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$B$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-513A-A147-95FE-B798656CCA83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Linking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q&amp;A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completion</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Query</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Classification</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Validation</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alignment</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Reasoning</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Embedding</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Other </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Construction</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Entity Recognition</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Relation Extraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$B$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-513A-A147-95FE-B798656CCA83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="1563400304"/>
+        <c:axId val="1582932048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1563400304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582932048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1582932048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563400304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F1E937-3D2A-A54F-AF69-B2A809D0B52F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1224,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3103BAF2-20A2-A84B-B31B-72839568B135}">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3313,4 +4754,2515 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE724E6-4F98-2147-93DD-C2F7AEE6A3D1}">
+  <dimension ref="A2:T25"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:T11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.83203125" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="6" max="6" width="49.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2020</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2019</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="H10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>253</v>
+      </c>
+      <c r="M10" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10" t="s">
+        <v>202</v>
+      </c>
+      <c r="O10" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>263</v>
+      </c>
+      <c r="R10" t="s">
+        <v>201</v>
+      </c>
+      <c r="S10" t="s">
+        <v>265</v>
+      </c>
+      <c r="T10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2019</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2019</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2019</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2019</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2019</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2019</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2019</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2019</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2019</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2019</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2019</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2019</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2019</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
+      <c r="F25" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1" xr:uid="{09156D46-FAC7-4A4D-B542-1A2FDBC02323}"/>
+    <hyperlink ref="E23" r:id="rId2" xr:uid="{DDD07A1B-199F-5B49-86C5-42F9C37595F0}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{D46B32B7-4E4C-EA48-A183-FE0E8ADEE7D1}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{D3EED9CA-40DC-CE4B-8B26-AEA40F468558}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{3D8A9E3A-4F14-E942-9301-1F6761534B5B}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{1CEE932D-77EC-2447-A9EC-BF2CFBD48A8D}"/>
+    <hyperlink ref="E6" r:id="rId7" xr:uid="{1D3A15AB-AEAC-0E46-992A-E51F8A935A9F}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{9A639704-C2FF-2343-B288-1364A4FEC588}"/>
+    <hyperlink ref="E8" r:id="rId9" xr:uid="{7678295B-9227-C344-9A86-6DFF3B4765BE}"/>
+    <hyperlink ref="E9" r:id="rId10" xr:uid="{35F42DC1-887A-E848-B5BF-D487286D9E5C}"/>
+    <hyperlink ref="E10" r:id="rId11" xr:uid="{333629FB-01C7-B64D-8AB4-3F58EE725366}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{4465DE57-3D08-5F4A-865C-351948ADBF13}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{8AA5D9D4-A7D8-774D-A562-756D74BEDB21}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{955D9CB4-F224-9842-A6DA-906EA3B33740}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{E73624B6-826B-D543-9EE2-7F03AB597763}"/>
+    <hyperlink ref="E19" r:id="rId16" xr:uid="{92D46560-5160-F545-9C2F-7C890F130E94}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{44252143-4F57-B445-A6D6-F2B93EBAD3E4}"/>
+    <hyperlink ref="E17" r:id="rId18" xr:uid="{6CEFEB26-012B-EF4D-9A09-BDD0172CF7D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C062AF-AA7C-2A4C-AF77-CCF46F667AB6}">
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61.5" customWidth="1"/>
+    <col min="4" max="4" width="73.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>2020</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" t="s">
+        <v>253</v>
+      </c>
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>2020</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>2020</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>2020</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{7F5AD5D5-AA4E-0D41-AE67-C50DFEC3D819}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{52783CFE-9F7E-C541-985E-7EB755E50553}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{9D3A0B71-FF72-7745-B73D-E4EBEFF95C0B}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{4A56BAAE-201F-B74E-A180-D326983A9F94}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{90B97DC0-76C9-E444-A79E-7930E7D9778C}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{23BA89BF-1FB4-624D-AF4D-324E1CEC0F3C}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{D99F7339-C938-6641-AF2B-74B95ACED4D9}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{6B08C3CC-199B-8149-B342-D427072D8588}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{7E60F88B-71A6-F54F-A43A-81B593A474E2}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{112740DE-7A46-9C4C-A8D9-0689C63E4B5B}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{D216AD60-0947-6948-AFD3-45DDD09DF1D7}"/>
+    <hyperlink ref="E14" r:id="rId12" xr:uid="{7EF06144-DE02-9D4D-88CD-61B195ABEFBD}"/>
+    <hyperlink ref="E15" r:id="rId13" xr:uid="{C37BCA5E-A007-2F49-81B0-83B8E45009A2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82DB9B9-B79B-2944-9A55-987EFA07A439}">
+  <dimension ref="A1:Z34"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8:Z8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6">
+        <v>2020</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="N7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" t="s">
+        <v>253</v>
+      </c>
+      <c r="S7" t="s">
+        <v>104</v>
+      </c>
+      <c r="T7" t="s">
+        <v>202</v>
+      </c>
+      <c r="U7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V7" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" t="s">
+        <v>263</v>
+      </c>
+      <c r="X7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>6</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14">
+        <v>2020</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15">
+        <v>2020</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16">
+        <v>2020</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17">
+        <v>2020</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18">
+        <v>2020</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19">
+        <v>2020</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20">
+        <v>2020</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21">
+        <v>2020</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22">
+        <v>2020</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23">
+        <v>2020</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24">
+        <v>2020</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25">
+        <v>2020</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26">
+        <v>2020</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27">
+        <v>2020</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28">
+        <v>2020</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29">
+        <v>2020</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30">
+        <v>2020</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31">
+        <v>2020</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32">
+        <v>2020</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33">
+        <v>2020</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34">
+        <v>2020</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{F52D5FB2-9565-B144-B1D2-8BEEFFD62BA4}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{B2662BD2-D269-FE4C-B1D3-4F40486797E6}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{C00C309E-B13C-914A-85EA-8F48E9D7D3DA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4FD27E-1653-BD4E-BEE7-5769F5FC9686}">
+  <dimension ref="A1:S40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>2019</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>2019</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="J6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" t="s">
+        <v>253</v>
+      </c>
+      <c r="O6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P6" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>9</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>2019</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9">
+        <v>2019</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>2019</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11">
+        <v>2019</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12">
+        <v>2019</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13">
+        <v>2019</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14">
+        <v>2019</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>2019</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>2019</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17">
+        <v>2019</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18">
+        <v>2019</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19">
+        <v>2019</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20">
+        <v>2019</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21">
+        <v>2019</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22">
+        <v>2019</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23">
+        <v>2019</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24">
+        <v>2019</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25">
+        <v>2019</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26">
+        <v>2019</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27">
+        <v>2019</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28">
+        <v>2019</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29">
+        <v>2019</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30">
+        <v>2019</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31">
+        <v>2019</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32">
+        <v>2019</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33">
+        <v>2019</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34">
+        <v>2019</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35">
+        <v>2019</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36">
+        <v>2019</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37">
+        <v>2019</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38">
+        <v>2019</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39">
+        <v>2019</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40">
+        <v>2019</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEB3983-BD2C-1443-9AA0-7E1B759CE66C}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>4</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>2</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>4</v>
+      </c>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>3</v>
+      </c>
+      <c r="I4" s="10">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10">
+        <v>2</v>
+      </c>
+      <c r="K4" s="10">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10">
+        <v>3</v>
+      </c>
+      <c r="M4" s="10">
+        <v>6</v>
+      </c>
+      <c r="N4" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/paperlist.xlsx
+++ b/paperlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvia.wang/Documents/phd/KGpaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A173AB8D-0D09-ED49-952E-3A7F4A46068A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D0C232-35E5-6E44-8F60-765B867BF9F3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7180" yWindow="1240" windowWidth="29640" windowHeight="16740" activeTab="5" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
   </bookViews>
@@ -7056,7 +7056,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/paperlist.xlsx
+++ b/paperlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvia.wang/Documents/phd/KGpaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D0C232-35E5-6E44-8F60-765B867BF9F3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1BE921-D601-F74B-86CD-4E7EA3CD2C55}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7180" yWindow="1240" windowWidth="29640" windowHeight="16740" activeTab="5" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
   </bookViews>

--- a/paperlist.xlsx
+++ b/paperlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvia.wang/Documents/phd/KGpaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1BE921-D601-F74B-86CD-4E7EA3CD2C55}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464A85FA-C176-A346-896A-7FCF68351B3E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="1240" windowWidth="29640" windowHeight="16740" activeTab="5" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
+    <workbookView xWindow="1160" yWindow="700" windowWidth="35120" windowHeight="19120" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="origin" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="292">
   <si>
     <t>Conference</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>Entity Enabled Relation Linking</t>
+  </si>
+  <si>
+    <t>Relation Linking</t>
   </si>
   <si>
     <t>Anytime Large-Scale Analytics of Linked Open Data</t>
@@ -909,12 +912,134 @@
   <si>
     <t>Entity Recognition</t>
   </si>
+  <si>
+    <t>Prior work on information ex- traction from semi-structured websites has re- quired learning an extraction model specific to a given template via either manually la- beled or distantly supervised data from that template.</t>
+  </si>
+  <si>
+    <t>Current Problem</t>
+  </si>
+  <si>
+    <t>Our model uses a graph neural network-based approach to build a rich representation of text fields on a web- page and the relationships between them, en- abling generalization to new templates.</t>
+  </si>
+  <si>
+    <t>Efforts have been made to build general purpose extractors that represent relations with their surface forms, or which jointly embed surface forms with rela- tions from an existing knowledge graph. How- ever, both of these approaches are limited in their ability to generalize.</t>
+  </si>
+  <si>
+    <t>producing useful relation representations directly from text. build on extensions of Harris’ distributional hypothesis to relations, as well as recent ad- vances in learning text representations (specif- ically, BERT), to build task agnostic relation representations solely from entity-linked text.</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/P19-1128.pdf</t>
+  </si>
+  <si>
+    <t>pro- pose graph neural networks with generated pa- rameters (GP-GNNs), to adapt graph neural net- works to solve the natural language relational rea- soning task.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">However, most existing GNNs can only process multi-hop rela- tional reasoning on pre-defined graphs and cannot be directly applied in natural language relational reasoning. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Enabling multi-hop relational reason- ing in natural languages remains an open problem.</t>
+    </r>
+  </si>
+  <si>
+    <t>In this paper, we im- prove the conventional prototypical networks for few-shot relation classification by encoding the query instance and class prototype interactively through multi-level matching and aggregation.</t>
+  </si>
+  <si>
+    <t>problem of shifted label distribution, which is caused by the in- consistency between the noisy-labeled train- ing set subject to external knowledge graph and the human-annotated test set, and exacer- bated by the pipelined entity-then-relation ex- traction manner with noise propagation.</t>
+  </si>
+  <si>
+    <t>We propose a joint extraction approach to address this problem by re-labeling noisy instances with a group of cooperative multiagents. To handle noisy instances in a fine-grained man- ner, each agent in the cooperative group eval- uates the instance by calculating a continuous confidence score from its own perspective; To leverage the correlations between these two ex- traction tasks, a confidence consensus module is designed to gather the wisdom of all agents and re-distribute the noisy training set with confidence-scored labels. Further, the confi- dences are used to adjust the training losses of extractors.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2004.12617</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We argue that a powerful contex- tualized representation module, a bilateral multi- perspective matching module, and a global infor- mation fusion module are all important to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>implicit discourse analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. We propose a novel model to combine these modules together.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Implicit discourse relation classification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is one of the most difficult parts in shallow discourse parsing as the relation prediction without explicit connec- tives requires the language understanding at both the text span level and the sentence level. Previous studies mainly focus on the interactions between two arguments.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2005.00153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We compute an entity relation subgraph (ERG) that can more expressively represent indirect relations among a set of mentioned entities. To find compact, representative, and relevant ERGs for effective enrichment, we propose an efficient best-first search algorithm to solve a new combinatorial optimization problem that achieves a trade-off between representativeness and compactness, and then we exploit ontological knowledge to rank ERGs by entity-based document-KG and intra-KG relevance. </t>
+  </si>
+  <si>
+    <t>https://www.cs.cornell.edu/courses/cs6241/2020sp/readings/Hamilton-2017-GraphSAGE.pdf</t>
+  </si>
+  <si>
+    <t>Dependency trees help relation extraction models capture long-range relations between words. However, existing dependency-based models either neglect crucial information (e.g., negation) by pruning the dependency trees too aggressively, or are computationally inef- ficient because it is difficult to parallelize over different tree structures.</t>
+  </si>
+  <si>
+    <t>propose an ex- tension of graph convolutional networks that is tailored for relation extraction, which pools information over arbitrary dependency struc- tures efficiently in parallel.</t>
+  </si>
+  <si>
+    <t>More on NLP, NO KG</t>
+  </si>
+  <si>
+    <t>Conventional supervised models have been widely explored in this task (Zelenko et al., 2003; Zeng et al., 2014); however, their perfor- mance heavily depends on the scale and quality of training data.</t>
+  </si>
+  <si>
+    <t>Although these DS models achieve promising results on common relations, their performance still degrades dramat- ically when there are only a few training instances for some relations. Empirically, DS can automat- ically annotate adequate amounts of training data; however, this data usually only covers a limited part of the relations. Many relations are long-tail and still suffer from data deficiency. Current DS models ignore the problem of long-tail relations, which makes it challenging to extract comprehen- sive information from plain text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the challenge is to learn accurate ”few- shot” models for classes existing at the tail of the class distribution, for which little data is available. Inspired by the rich semantic cor- relations between classes at the long tail and those at the head, we take advantage of the knowledge from data-rich classes at the head of the distribution to boost the performance of the data-poor classes at the tail. </t>
+  </si>
+  <si>
+    <t>Most OpenRE meth- ods typically confine themselves to unsuper- vised paradigms, without taking advantage of existing relational facts in knowledge bases (KBs) and their high-quality labeled instances. To address this issue</t>
+  </si>
+  <si>
+    <t>transfer the relational knowledge to identify novel rela- tions in unlabeled data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -964,6 +1089,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="NimbusRomNo9L"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -986,7 +1149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1006,6 +1169,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2665,19 +2835,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3103BAF2-20A2-A84B-B31B-72839568B135}">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="4" max="4" width="78.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="81" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" customWidth="1"/>
     <col min="6" max="7" width="60.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="17">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -2696,12 +2867,14 @@
       <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>268</v>
+      </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="68">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2724,7 +2897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="85">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2744,7 +2917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="68">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2765,7 +2938,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="85">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2785,7 +2958,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="136">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2803,7 +2976,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="68">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2823,7 +2996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2840,7 +3013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2857,8 +3030,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" ht="102">
+      <c r="A12" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B12" t="s">
@@ -2873,8 +3046,17 @@
       <c r="E12" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F12" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="H12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -2891,7 +3073,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -2905,7 +3087,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2919,8 +3101,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C16">
@@ -2933,7 +3115,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -2950,8 +3132,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:8" ht="153">
+      <c r="A18" s="12" t="s">
         <v>69</v>
       </c>
       <c r="B18" t="s">
@@ -2966,8 +3148,17 @@
       <c r="E18" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -2984,7 +3175,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -3001,8 +3192,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:8" ht="68">
+      <c r="A21" s="12" t="s">
         <v>84</v>
       </c>
       <c r="B21" t="s">
@@ -3017,10 +3208,16 @@
       <c r="E21" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
         <v>87</v>
@@ -3033,9 +3230,9 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s">
         <v>87</v>
@@ -3047,9 +3244,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="51">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
         <v>87</v>
@@ -3061,12 +3258,12 @@
         <v>90</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s">
         <v>87</v>
@@ -3078,12 +3275,12 @@
         <v>91</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="102">
       <c r="A31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s">
         <v>87</v>
@@ -3095,468 +3292,468 @@
         <v>92</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17">
       <c r="A32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32">
+        <v>2019</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32">
-        <v>2019</v>
-      </c>
-      <c r="D32" s="5" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="34">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33">
+        <v>2019</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34">
+        <v>2019</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17">
+      <c r="A35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35">
+        <v>2019</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="51">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36">
+        <v>2019</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37">
+        <v>2019</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38">
+        <v>2019</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33">
-        <v>2019</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34">
-        <v>2019</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>253</v>
-      </c>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35">
-        <v>2019</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="5" t="s">
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39">
+        <v>2019</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40">
+        <v>2019</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41">
+        <v>2019</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42">
+        <v>2019</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43">
+        <v>2019</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44">
+        <v>2019</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45">
+        <v>2019</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46">
+        <v>2019</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47">
+        <v>2019</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48">
+        <v>2019</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49">
+        <v>2019</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>255</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50">
+        <v>2019</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="34">
+      <c r="A51" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51">
+        <v>2019</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52">
+        <v>2019</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="68">
+      <c r="A53" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53">
+        <v>2019</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54">
+        <v>2019</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55">
+        <v>2019</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56">
+        <v>2019</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57">
+        <v>2019</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58">
+        <v>2019</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59">
+        <v>2019</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60">
+        <v>2019</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61">
+        <v>2019</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>2019</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="51">
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63">
+        <v>2019</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36">
-        <v>2019</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37">
-        <v>2019</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38">
-        <v>2019</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39">
-        <v>2019</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40">
-        <v>2019</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41">
-        <v>2019</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42">
-        <v>2019</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43">
-        <v>2019</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44">
-        <v>2019</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45">
-        <v>2019</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46">
-        <v>2019</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47">
-        <v>2019</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48">
-        <v>2019</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49">
-        <v>2019</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>254</v>
-      </c>
-      <c r="B50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50">
-        <v>2019</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>124</v>
-      </c>
-      <c r="B51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51">
-        <v>2019</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52">
-        <v>2019</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>202</v>
-      </c>
-      <c r="B53" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53">
-        <v>2019</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54">
-        <v>2019</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>124</v>
-      </c>
-      <c r="B55" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55">
-        <v>2019</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56">
-        <v>2019</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>202</v>
-      </c>
-      <c r="B57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57">
-        <v>2019</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58">
-        <v>2019</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59">
-        <v>2019</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60">
-        <v>2019</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61">
-        <v>2019</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62">
-        <v>2019</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63">
-        <v>2019</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:6">
+      <c r="A64" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B64" t="s">
@@ -3569,7 +3766,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -3580,12 +3777,12 @@
         <v>2019</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s">
         <v>46</v>
@@ -3594,10 +3791,10 @@
         <v>2020</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -3608,13 +3805,13 @@
         <v>2020</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="B71" t="s">
         <v>46</v>
       </c>
@@ -3622,15 +3819,15 @@
         <v>2020</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B72" t="s">
         <v>46</v>
@@ -3639,15 +3836,15 @@
         <v>2020</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B73" t="s">
         <v>46</v>
@@ -3656,15 +3853,15 @@
         <v>2020</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s">
         <v>46</v>
@@ -3673,15 +3870,15 @@
         <v>2020</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B75" t="s">
         <v>46</v>
@@ -3690,15 +3887,15 @@
         <v>2020</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B76" t="s">
         <v>46</v>
@@ -3707,15 +3904,15 @@
         <v>2020</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B77" t="s">
         <v>46</v>
@@ -3724,15 +3921,15 @@
         <v>2020</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B78" t="s">
         <v>46</v>
@@ -3741,14 +3938,14 @@
         <v>2020</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B79" t="s">
@@ -3758,15 +3955,15 @@
         <v>2020</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>210</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="B80" t="s">
         <v>46</v>
@@ -3775,15 +3972,15 @@
         <v>2020</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B81" t="s">
         <v>46</v>
@@ -3792,15 +3989,15 @@
         <v>2020</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B82" t="s">
         <v>46</v>
@@ -3809,14 +4006,14 @@
         <v>2020</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B83" t="s">
@@ -3832,492 +4029,508 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C87">
         <v>2020</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" t="s">
         <v>161</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>28</v>
-      </c>
-      <c r="B88" t="s">
-        <v>160</v>
-      </c>
       <c r="C88">
         <v>2020</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
+        <v>225</v>
+      </c>
+      <c r="B89" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89">
+        <v>2020</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90">
+        <v>2020</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91">
+        <v>2020</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92">
+        <v>2020</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93">
+        <v>2020</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" t="s">
+        <v>161</v>
+      </c>
+      <c r="C94">
+        <v>2020</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95">
+        <v>2020</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" ht="136">
+      <c r="A96" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96">
+        <v>2020</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>161</v>
+      </c>
+      <c r="C97">
+        <v>2020</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" t="s">
+        <v>161</v>
+      </c>
+      <c r="C98">
+        <v>2020</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" t="s">
+        <v>161</v>
+      </c>
+      <c r="C99">
+        <v>2020</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100">
+        <v>2020</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>225</v>
+      </c>
+      <c r="B101" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101">
+        <v>2020</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B89" t="s">
-        <v>160</v>
-      </c>
-      <c r="C89">
-        <v>2020</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>197</v>
-      </c>
-      <c r="B90" t="s">
-        <v>160</v>
-      </c>
-      <c r="C90">
-        <v>2020</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>124</v>
-      </c>
-      <c r="B91" t="s">
-        <v>160</v>
-      </c>
-      <c r="C91">
-        <v>2020</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>98</v>
-      </c>
-      <c r="B92" t="s">
-        <v>160</v>
-      </c>
-      <c r="C92">
-        <v>2020</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>101</v>
-      </c>
-      <c r="B93" t="s">
-        <v>160</v>
-      </c>
-      <c r="C93">
-        <v>2020</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>101</v>
-      </c>
-      <c r="B94" t="s">
-        <v>160</v>
-      </c>
-      <c r="C94">
-        <v>2020</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" t="s">
-        <v>160</v>
-      </c>
-      <c r="C95">
-        <v>2020</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>197</v>
-      </c>
-      <c r="B96" t="s">
-        <v>160</v>
-      </c>
-      <c r="C96">
-        <v>2020</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" t="s">
-        <v>160</v>
-      </c>
-      <c r="C97">
-        <v>2020</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>202</v>
-      </c>
-      <c r="B98" t="s">
-        <v>160</v>
-      </c>
-      <c r="C98">
-        <v>2020</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>124</v>
-      </c>
-      <c r="B99" t="s">
-        <v>160</v>
-      </c>
-      <c r="C99">
-        <v>2020</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>197</v>
-      </c>
-      <c r="B100" t="s">
-        <v>160</v>
-      </c>
-      <c r="C100">
-        <v>2020</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>224</v>
-      </c>
-      <c r="B101" t="s">
-        <v>160</v>
-      </c>
-      <c r="C101">
-        <v>2020</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B102" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C102">
         <v>2020</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" t="s">
+        <v>161</v>
+      </c>
+      <c r="C103">
+        <v>2020</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" t="s">
+        <v>161</v>
+      </c>
+      <c r="C104">
+        <v>2020</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>124</v>
-      </c>
-      <c r="B103" t="s">
-        <v>160</v>
-      </c>
-      <c r="C103">
-        <v>2020</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>202</v>
-      </c>
-      <c r="B104" t="s">
-        <v>160</v>
-      </c>
-      <c r="C104">
-        <v>2020</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>224</v>
-      </c>
       <c r="B105" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C105">
         <v>2020</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>28</v>
       </c>
       <c r="B106" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C106">
         <v>2020</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107" t="s">
+        <v>161</v>
+      </c>
+      <c r="C107">
+        <v>2020</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B107" t="s">
-        <v>160</v>
-      </c>
-      <c r="C107">
-        <v>2020</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B108" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C108">
         <v>2020</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B109" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C109">
         <v>2020</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
+        <v>236</v>
+      </c>
+      <c r="B110" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110">
+        <v>2020</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B110" t="s">
-        <v>160</v>
-      </c>
-      <c r="C110">
-        <v>2020</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B111" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C111">
         <v>2020</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B112" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C112">
         <v>2020</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>197</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="85">
+      <c r="A113" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="B113" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C113">
         <v>2020</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C114">
         <v>2020</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C115">
         <v>2020</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B116" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C116">
         <v>2020</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B117" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C117">
         <v>2020</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" t="s">
+        <v>161</v>
+      </c>
+      <c r="C118">
+        <v>2020</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>225</v>
+      </c>
+      <c r="B119" t="s">
+        <v>161</v>
+      </c>
+      <c r="C119">
+        <v>2020</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B118" t="s">
-        <v>160</v>
-      </c>
-      <c r="C118">
-        <v>2020</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>224</v>
-      </c>
-      <c r="B119" t="s">
-        <v>160</v>
-      </c>
-      <c r="C119">
-        <v>2020</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>197</v>
+    </row>
+    <row r="123" spans="1:7" ht="68">
+      <c r="A123" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
@@ -4326,15 +4539,21 @@
         <v>2020</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B124" t="s">
         <v>2</v>
@@ -4343,15 +4562,15 @@
         <v>2020</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
@@ -4360,15 +4579,15 @@
         <v>2020</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>199</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="170">
+      <c r="A126" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
@@ -4377,15 +4596,21 @@
         <v>2020</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
@@ -4394,15 +4619,15 @@
         <v>2020</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B128" t="s">
         <v>2</v>
@@ -4411,15 +4636,15 @@
         <v>2020</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B129" t="s">
         <v>2</v>
@@ -4428,14 +4653,14 @@
         <v>2020</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B130" t="s">
@@ -4445,15 +4670,15 @@
         <v>2020</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B131" t="s">
         <v>2</v>
@@ -4462,15 +4687,15 @@
         <v>2019</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B132" t="s">
         <v>2</v>
@@ -4479,15 +4704,15 @@
         <v>2019</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>204</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="85">
+      <c r="A133" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="B133" t="s">
         <v>2</v>
@@ -4496,15 +4721,21 @@
         <v>2019</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B134" t="s">
         <v>2</v>
@@ -4513,15 +4744,15 @@
         <v>2019</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B135" t="s">
         <v>2</v>
@@ -4530,15 +4761,15 @@
         <v>2019</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B136" t="s">
         <v>2</v>
@@ -4547,15 +4778,15 @@
         <v>2019</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B137" t="s">
         <v>2</v>
@@ -4564,14 +4795,14 @@
         <v>2019</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="68">
+      <c r="A138" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B138" t="s">
@@ -4586,8 +4817,11 @@
       <c r="E138" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F138" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>81</v>
       </c>
@@ -4604,8 +4838,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="140" spans="1:8">
+      <c r="A140" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B140" t="s">
@@ -4621,8 +4855,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="141" spans="1:8" ht="68">
+      <c r="A141" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B141" t="s">
@@ -4634,12 +4868,12 @@
       <c r="D141" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="142" spans="1:8" ht="68">
+      <c r="A142" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B142" t="s">
@@ -4651,9 +4885,18 @@
       <c r="D142" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="E142" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="85">
+      <c r="A143" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B143" t="s">
@@ -4675,8 +4918,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row r="144" spans="1:8" ht="68">
+      <c r="A144" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B144" t="s">
@@ -4750,6 +4993,13 @@
     <hyperlink ref="E140" r:id="rId48" xr:uid="{F527E923-EC86-D44A-9068-DAAF43D7C651}"/>
     <hyperlink ref="E139" r:id="rId49" xr:uid="{03A5BBAA-A6AA-844A-8DCB-7616837ADB96}"/>
     <hyperlink ref="E138" r:id="rId50" xr:uid="{A7C16FAA-D280-A94C-AFFF-F26210EF5642}"/>
+    <hyperlink ref="E141" r:id="rId51" xr:uid="{AF1FF55B-0505-1A41-9601-003DECA86B13}"/>
+    <hyperlink ref="E80" r:id="rId52" xr:uid="{932C440D-EBBB-2740-AD21-7028846B8FA3}"/>
+    <hyperlink ref="E133" r:id="rId53" xr:uid="{9A13692B-9F0C-6F48-99A0-C555CCE9DB4C}"/>
+    <hyperlink ref="E142" r:id="rId54" xr:uid="{B3BF538F-FB1B-1644-8AA1-1B8DF0037229}"/>
+    <hyperlink ref="E113" r:id="rId55" xr:uid="{AF4CEF83-424E-614B-B697-ED899F5FDDD0}"/>
+    <hyperlink ref="E96" r:id="rId56" xr:uid="{A894C104-DC10-3C4A-A1B5-102067ED55B2}"/>
+    <hyperlink ref="E90" r:id="rId57" xr:uid="{D711FF0B-77B9-B04D-BA4F-173515C12D71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4764,7 +5014,7 @@
       <selection activeCell="H11" sqref="H11:T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="42.83203125" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
@@ -4772,9 +5022,9 @@
     <col min="6" max="6" width="49.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -4783,16 +5033,16 @@
         <v>2020</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -4801,16 +5051,16 @@
         <v>2020</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -4819,16 +5069,16 @@
         <v>2020</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -4837,16 +5087,16 @@
         <v>2020</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -4855,16 +5105,16 @@
         <v>2020</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -4873,16 +5123,16 @@
         <v>2020</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -4891,14 +5141,14 @@
         <v>2020</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -4909,16 +5159,16 @@
         <v>2020</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -4927,55 +5177,55 @@
         <v>2019</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F10" s="5"/>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P10" t="s">
         <v>28</v>
       </c>
       <c r="Q10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="S10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -4984,10 +5234,10 @@
         <v>2019</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F11" s="5"/>
       <c r="H11">
@@ -5030,9 +5280,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -5041,16 +5291,16 @@
         <v>2019</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -5059,16 +5309,16 @@
         <v>2019</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -5077,16 +5327,16 @@
         <v>2019</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -5095,16 +5345,16 @@
         <v>2019</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -5113,14 +5363,14 @@
         <v>2019</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -5138,7 +5388,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -5156,7 +5406,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -5174,7 +5424,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -5192,7 +5442,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -5207,7 +5457,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="102">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -5227,7 +5477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="85">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -5247,11 +5497,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="D24" s="2"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="D25" s="2"/>
       <c r="F25" s="5"/>
     </row>
@@ -5289,13 +5539,13 @@
       <selection activeCell="J11" sqref="J11:S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="61.5" customWidth="1"/>
     <col min="4" max="4" width="73.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -5306,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -5315,9 +5565,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -5326,10 +5576,10 @@
         <v>2020</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -5340,15 +5590,15 @@
         <v>2020</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -5357,15 +5607,15 @@
         <v>2020</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -5374,15 +5624,15 @@
         <v>2020</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -5391,15 +5641,15 @@
         <v>2020</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -5408,15 +5658,15 @@
         <v>2020</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -5425,15 +5675,15 @@
         <v>2020</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -5442,15 +5692,15 @@
         <v>2020</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -5459,45 +5709,45 @@
         <v>2020</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R10" t="s">
         <v>28</v>
       </c>
       <c r="S10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -5506,10 +5756,10 @@
         <v>2020</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5539,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -5550,15 +5800,15 @@
         <v>2020</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -5567,15 +5817,15 @@
         <v>2020</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -5584,15 +5834,15 @@
         <v>2020</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
@@ -5601,13 +5851,13 @@
         <v>2020</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -5624,7 +5874,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4">
       <c r="D17" s="2"/>
     </row>
   </sheetData>
@@ -5656,9 +5906,9 @@
       <selection activeCell="N8" sqref="N8:Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -5669,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -5678,165 +5928,165 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C2">
         <v>2020</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C3">
         <v>2020</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C4">
         <v>2020</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C5">
         <v>2020</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C6">
         <v>2020</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C7">
         <v>2020</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="N7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V7" t="s">
         <v>28</v>
       </c>
       <c r="W7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C8">
         <v>2020</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="5"/>
@@ -5881,426 +6131,426 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C9">
         <v>2020</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C10">
         <v>2020</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C11">
         <v>2020</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C12">
         <v>2020</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13">
         <v>2020</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14">
         <v>2020</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15">
         <v>2020</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16">
+        <v>2020</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16">
-        <v>2020</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C17">
         <v>2020</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C18">
         <v>2020</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19">
         <v>2020</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C20">
         <v>2020</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C21">
         <v>2020</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22">
+        <v>2020</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="B22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22">
-        <v>2020</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C23">
         <v>2020</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C24">
         <v>2020</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25">
+        <v>2020</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="B25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25">
-        <v>2020</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C26">
         <v>2020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C27">
         <v>2020</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C28">
         <v>2020</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C29">
         <v>2020</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C30">
         <v>2020</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C31">
         <v>2020</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C32">
         <v>2020</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C33">
         <v>2020</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C34">
         <v>2020</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -6324,14 +6574,14 @@
       <selection activeCell="J6" sqref="J6:S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="62.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -6342,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -6351,9 +6601,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -6368,9 +6618,9 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -6384,9 +6634,9 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="51">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -6398,13 +6648,13 @@
         <v>90</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="17">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -6416,13 +6666,13 @@
         <v>91</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:19" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="102">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -6434,52 +6684,52 @@
         <v>92</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G6" s="5"/>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R6" t="s">
         <v>28</v>
       </c>
       <c r="S6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="17">
       <c r="A7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -6514,9 +6764,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="34">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -6525,14 +6775,14 @@
         <v>2019</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="B9" t="s">
         <v>87</v>
       </c>
@@ -6540,14 +6790,14 @@
         <v>2019</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="17">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
@@ -6556,34 +6806,34 @@
         <v>2019</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="51">
       <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11">
+        <v>2019</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11">
-        <v>2019</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
         <v>87</v>
@@ -6592,30 +6842,30 @@
         <v>2019</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13">
+        <v>2019</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13">
-        <v>2019</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
         <v>87</v>
@@ -6624,14 +6874,14 @@
         <v>2019</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
         <v>87</v>
@@ -6640,14 +6890,14 @@
         <v>2019</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
@@ -6656,46 +6906,46 @@
         <v>2019</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17">
+        <v>2019</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17">
-        <v>2019</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18">
+        <v>2019</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18">
-        <v>2019</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -6704,14 +6954,14 @@
         <v>2019</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -6720,14 +6970,14 @@
         <v>2019</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -6736,14 +6986,14 @@
         <v>2019</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
         <v>87</v>
@@ -6752,14 +7002,14 @@
         <v>2019</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
         <v>87</v>
@@ -6768,30 +7018,30 @@
         <v>2019</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24">
+        <v>2019</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24">
-        <v>2019</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s">
         <v>87</v>
@@ -6800,14 +7050,14 @@
         <v>2019</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="34">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
         <v>87</v>
@@ -6816,14 +7066,14 @@
         <v>2019</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="B27" t="s">
         <v>87</v>
       </c>
@@ -6831,14 +7081,14 @@
         <v>2019</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="68">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s">
         <v>87</v>
@@ -6847,48 +7097,48 @@
         <v>2019</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29">
+        <v>2019</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29">
-        <v>2019</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30">
+        <v>2019</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30">
-        <v>2019</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
         <v>87</v>
@@ -6897,14 +7147,14 @@
         <v>2019</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B32" t="s">
         <v>87</v>
@@ -6913,14 +7163,14 @@
         <v>2019</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
         <v>87</v>
@@ -6929,14 +7179,14 @@
         <v>2019</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
         <v>87</v>
@@ -6945,14 +7195,14 @@
         <v>2019</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
         <v>87</v>
@@ -6961,14 +7211,14 @@
         <v>2019</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
         <v>87</v>
@@ -6977,14 +7227,14 @@
         <v>2019</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
         <v>87</v>
@@ -6993,12 +7243,12 @@
         <v>2019</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="51">
       <c r="B38" t="s">
         <v>87</v>
       </c>
@@ -7006,14 +7256,14 @@
         <v>2019</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -7029,7 +7279,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -7040,7 +7290,7 @@
         <v>2019</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -7055,57 +7305,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEB3983-BD2C-1443-9AA0-7E1B759CE66C}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J1" t="s">
         <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -7140,7 +7390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -7173,9 +7423,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
@@ -7217,7 +7467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>2</v>
       </c>

--- a/paperlist.xlsx
+++ b/paperlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvia.wang/Documents/phd/KGpaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464A85FA-C176-A346-896A-7FCF68351B3E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88152E02-A205-894C-BAAE-5FAD804D925C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="700" windowWidth="35120" windowHeight="19120" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
+    <workbookView xWindow="2340" yWindow="1600" windowWidth="28680" windowHeight="19120" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="origin" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="296">
   <si>
     <t>Conference</t>
   </si>
@@ -1034,12 +1034,24 @@
   <si>
     <t>transfer the relational knowledge to identify novel rela- tions in unlabeled data</t>
   </si>
+  <si>
+    <t>In this paper, we take a radical step towards building another type of human-like conversa- tional agent: endowing it with the ability of proac- tively leading the conversation with an explicit conversation goal.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2005.05886v1.pdf</t>
+  </si>
+  <si>
+    <t>Many existing meth- ods rely on syntactic parsing like dependencies. However, the accuracy of producing such expressive formalisms is not sat- isfying on long complex questions.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2003.13956.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1127,6 +1139,13 @@
       <color theme="1"/>
       <name val="NimbusRomNo9L"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1149,7 +1168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1176,6 +1195,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2835,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3103BAF2-20A2-A84B-B31B-72839568B135}">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3414,7 +3434,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" t="s">
+      <c r="A40" s="16" t="s">
         <v>102</v>
       </c>
       <c r="B40" t="s">
@@ -3766,7 +3786,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -3780,8 +3800,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
+    <row r="69" spans="1:7" ht="51">
+      <c r="A69" s="16" t="s">
         <v>102</v>
       </c>
       <c r="B69" t="s">
@@ -3793,8 +3813,14 @@
       <c r="D69" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="E69" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -3811,7 +3837,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:7">
       <c r="B71" t="s">
         <v>46</v>
       </c>
@@ -3825,7 +3851,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>206</v>
       </c>
@@ -3842,7 +3868,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>203</v>
       </c>
@@ -3859,7 +3885,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>207</v>
       </c>
@@ -3876,7 +3902,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -3893,7 +3919,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>209</v>
       </c>
@@ -3910,7 +3936,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>210</v>
       </c>
@@ -3927,7 +3953,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>203</v>
       </c>
@@ -3944,7 +3970,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:7">
       <c r="A79" s="11" t="s">
         <v>28</v>
       </c>
@@ -3961,7 +3987,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:7">
       <c r="A80" s="11" t="s">
         <v>211</v>
       </c>
@@ -4143,7 +4169,7 @@
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" t="s">
+      <c r="A94" s="16" t="s">
         <v>102</v>
       </c>
       <c r="B94" t="s">
@@ -4155,7 +4181,9 @@
       <c r="D94" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
@@ -4282,7 +4310,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" t="s">
+      <c r="A103" s="16" t="s">
         <v>125</v>
       </c>
       <c r="B103" t="s">
@@ -4445,7 +4473,7 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" t="s">
+      <c r="A114" s="16" t="s">
         <v>125</v>
       </c>
       <c r="B114" t="s">
@@ -4676,8 +4704,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
-      <c r="A131" t="s">
+    <row r="131" spans="1:8" ht="68">
+      <c r="A131" s="16" t="s">
         <v>125</v>
       </c>
       <c r="B131" t="s">
@@ -4691,6 +4719,9 @@
       </c>
       <c r="E131" s="1" t="s">
         <v>185</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5000,6 +5031,8 @@
     <hyperlink ref="E113" r:id="rId55" xr:uid="{AF4CEF83-424E-614B-B697-ED899F5FDDD0}"/>
     <hyperlink ref="E96" r:id="rId56" xr:uid="{A894C104-DC10-3C4A-A1B5-102067ED55B2}"/>
     <hyperlink ref="E90" r:id="rId57" xr:uid="{D711FF0B-77B9-B04D-BA4F-173515C12D71}"/>
+    <hyperlink ref="E94" r:id="rId58" xr:uid="{F037138D-EAC9-7A4C-8763-27B7BA52569F}"/>
+    <hyperlink ref="E69" r:id="rId59" xr:uid="{838F3CAE-0CAB-D94F-B891-D48A216C2A7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/paperlist.xlsx
+++ b/paperlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvia.wang/Documents/phd/KGpaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88152E02-A205-894C-BAAE-5FAD804D925C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D9AD49-418A-4049-BEB1-EFE6269253FA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1600" windowWidth="28680" windowHeight="19120" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
+    <workbookView xWindow="680" yWindow="1660" windowWidth="28680" windowHeight="19120" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="origin" sheetId="1" r:id="rId1"/>
@@ -2855,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3103BAF2-20A2-A84B-B31B-72839568B135}">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/paperlist.xlsx
+++ b/paperlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvia.wang/Documents/phd/KGpaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D9AD49-418A-4049-BEB1-EFE6269253FA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE598A0-BA6B-3747-85BB-53C035F15C37}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1660" windowWidth="28680" windowHeight="19120" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
+    <workbookView xWindow="2260" yWindow="1660" windowWidth="28680" windowHeight="19120" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="origin" sheetId="1" r:id="rId1"/>
@@ -20,80 +20,6 @@
     <sheet name="iswc" sheetId="2" r:id="rId5"/>
     <sheet name="summary" sheetId="3" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">summary!$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">summary!$A$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">summary!$A$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">summary!$A$4</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">summary!$A$5</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">summary!$B$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">summary!$B$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">summary!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">summary!$B$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">summary!$B$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">summary!$A$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">summary!$A$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">summary!$A$4</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">summary!$A$4</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">summary!$A$5</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">summary!$B$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">summary!$B$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">summary!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">summary!$B$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">summary!$B$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">summary!$A$2</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">summary!$A$3</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">summary!$A$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">summary!$A$5</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">summary!$A$5</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">summary!$B$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">summary!$B$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">summary!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">summary!$B$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">summary!$B$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">summary!$A$2</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">summary!$A$3</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">summary!$A$4</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">summary!$A$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">summary!$B$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">summary!$B$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">summary!$B$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">summary!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">summary!$B$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">summary!$B$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">summary!$A$2</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">summary!$A$3</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">summary!$A$4</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">summary!$A$5</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">summary!$B$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">summary!$B$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">summary!$B$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">summary!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">summary!$B$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">summary!$B$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">summary!$A$2</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">summary!$A$3</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">summary!$A$4</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">summary!$A$5</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">summary!$B$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">summary!$B$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">summary!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">summary!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">summary!$B$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">summary!$B$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">summary!$A$2</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">summary!$A$3</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">summary!$A$4</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">summary!$A$5</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">summary!$B$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">summary!$B$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">summary!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">summary!$B$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">summary!$B$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">summary!$B$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">summary!$B$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">summary!$A$2</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -104,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="297">
   <si>
     <t>Conference</t>
   </si>
@@ -1045,6 +971,9 @@
   </si>
   <si>
     <t>https://arxiv.org/pdf/2003.13956.pdf</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/324988196_Formal_Query_Generation_for_Question_Answering_over_Knowledge_Bases/link/5c4991c8299bf12be3df6354/download</t>
   </si>
 </sst>
 </file>
@@ -2855,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3103BAF2-20A2-A84B-B31B-72839568B135}">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4296,7 +4225,7 @@
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" t="s">
+      <c r="A102" s="16" t="s">
         <v>125</v>
       </c>
       <c r="B102" t="s">
@@ -4307,6 +4236,9 @@
       </c>
       <c r="D102" s="2" t="s">
         <v>226</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5033,6 +4965,7 @@
     <hyperlink ref="E90" r:id="rId57" xr:uid="{D711FF0B-77B9-B04D-BA4F-173515C12D71}"/>
     <hyperlink ref="E94" r:id="rId58" xr:uid="{F037138D-EAC9-7A4C-8763-27B7BA52569F}"/>
     <hyperlink ref="E69" r:id="rId59" xr:uid="{838F3CAE-0CAB-D94F-B891-D48A216C2A7A}"/>
+    <hyperlink ref="E102" r:id="rId60" xr:uid="{6679C2F2-FEB3-AA4D-A91A-B5395E56F067}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6667,7 +6600,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:19" ht="51">
+    <row r="4" spans="1:19" ht="272">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -6685,7 +6618,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:19" ht="17">
+    <row r="5" spans="1:19" ht="68">
       <c r="A5" t="s">
         <v>250</v>
       </c>
@@ -6703,7 +6636,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:19" ht="102">
+    <row r="6" spans="1:19" ht="409.6">
       <c r="A6" t="s">
         <v>251</v>
       </c>
@@ -6751,7 +6684,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="17">
+    <row r="7" spans="1:19" ht="102">
       <c r="A7" t="s">
         <v>262</v>
       </c>
@@ -6797,7 +6730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="34">
+    <row r="8" spans="1:19" ht="187">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -6846,7 +6779,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:19" ht="51">
+    <row r="11" spans="1:19" ht="340">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -7088,7 +7021,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="34">
+    <row r="26" spans="1:7" ht="136">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -7119,7 +7052,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="68">
+    <row r="28" spans="1:7" ht="404">
       <c r="A28" t="s">
         <v>203</v>
       </c>
@@ -7281,7 +7214,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="51">
+    <row r="38" spans="1:7" ht="306">
       <c r="B38" t="s">
         <v>87</v>
       </c>

--- a/paperlist.xlsx
+++ b/paperlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvia.wang/Documents/phd/KGpaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE598A0-BA6B-3747-85BB-53C035F15C37}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35B0848-E00E-8548-931B-7CF753EC2E90}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2260" yWindow="1660" windowWidth="28680" windowHeight="19120" xr2:uid="{D369333A-36B4-0C47-8F0E-0EDFBC410BF9}"/>
   </bookViews>
@@ -2784,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3103BAF2-20A2-A84B-B31B-72839568B135}">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
